--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\45K211_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clone_GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77350BF0-A921-4B94-A3DB-9677A932AE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -272,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -453,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -468,9 +472,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,14 +687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:X997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -705,14 +706,14 @@
     <col min="5" max="5" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -733,7 +734,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -769,14 +770,14 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -805,7 +806,9 @@
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -827,7 +830,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -835,7 +838,9 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -865,7 +870,9 @@
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -895,7 +902,9 @@
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -925,7 +934,9 @@
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -955,7 +966,9 @@
       <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -977,7 +990,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -985,7 +998,9 @@
       <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1007,7 +1022,7 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -1015,7 +1030,9 @@
       <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1037,7 +1054,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>23</v>
@@ -1045,7 +1062,9 @@
       <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1067,7 +1086,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
@@ -1075,7 +1094,9 @@
       <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1097,7 +1118,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -1105,7 +1126,9 @@
       <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1127,7 +1150,7 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>29</v>
@@ -1135,7 +1158,9 @@
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1157,7 +1182,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>31</v>
@@ -1165,7 +1190,9 @@
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1187,7 +1214,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>32</v>
@@ -1195,7 +1222,9 @@
       <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1217,7 +1246,7 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
@@ -1225,7 +1254,9 @@
       <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1247,7 +1278,7 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>36</v>
@@ -1255,7 +1286,9 @@
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1277,7 +1310,7 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>37</v>
@@ -1285,7 +1318,9 @@
       <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1307,7 +1342,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>39</v>
@@ -1315,7 +1350,9 @@
       <c r="C21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1337,7 +1374,7 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>41</v>
@@ -1345,7 +1382,9 @@
       <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1368,13 +1407,13 @@
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1403,7 +1442,7 @@
       <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="5"/>
@@ -1435,7 +1474,7 @@
       <c r="C25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E25" s="5"/>
@@ -1467,7 +1506,7 @@
       <c r="C26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="5"/>
@@ -1499,7 +1538,7 @@
       <c r="C27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="5"/>
@@ -1531,7 +1570,7 @@
       <c r="C28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E28" s="5"/>
@@ -1563,7 +1602,7 @@
       <c r="C29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E29" s="5"/>
@@ -1588,13 +1627,13 @@
       <c r="X29" s="7"/>
     </row>
     <row r="30" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -1615,7 +1654,7 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>57</v>
@@ -1623,7 +1662,9 @@
       <c r="C31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1645,7 +1686,7 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>59</v>
@@ -1653,7 +1694,9 @@
       <c r="C32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -1675,7 +1718,7 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>61</v>
       </c>
@@ -1685,7 +1728,9 @@
       <c r="C33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1707,7 +1752,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="6" t="s">
         <v>64</v>
@@ -1715,7 +1760,9 @@
       <c r="C34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -1737,8 +1784,8 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1747,7 +1794,9 @@
       <c r="C35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -1769,15 +1818,17 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+    <row r="36" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
       <c r="B36" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -1799,15 +1850,17 @@
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+    <row r="37" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
       <c r="B37" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1829,15 +1882,17 @@
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+    <row r="38" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
       <c r="B38" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1859,7 +1914,7 @@
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>75</v>
       </c>
@@ -1869,7 +1924,9 @@
       <c r="C39" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -1891,7 +1948,7 @@
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1917,7 +1974,7 @@
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1943,7 +2000,7 @@
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1969,7 +2026,7 @@
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1995,7 +2052,7 @@
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2021,7 +2078,7 @@
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2047,7 +2104,7 @@
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2073,7 +2130,7 @@
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2099,7 +2156,7 @@
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2125,7 +2182,7 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2151,7 +2208,7 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2177,7 +2234,7 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2203,7 +2260,7 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2229,7 +2286,7 @@
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2255,7 +2312,7 @@
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2281,7 +2338,7 @@
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2307,7 +2364,7 @@
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2333,7 +2390,7 @@
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2359,7 +2416,7 @@
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2385,7 +2442,7 @@
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2411,7 +2468,7 @@
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2437,7 +2494,7 @@
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2463,7 +2520,7 @@
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2489,7 +2546,7 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2515,7 +2572,7 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2541,7 +2598,7 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2567,7 +2624,7 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2593,7 +2650,7 @@
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2619,7 +2676,7 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="7"/>
@@ -2645,7 +2702,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2671,7 +2728,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2697,7 +2754,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2723,7 +2780,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2749,7 +2806,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2775,7 +2832,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2801,7 +2858,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2827,7 +2884,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2853,7 +2910,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2879,7 +2936,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2905,7 +2962,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2931,7 +2988,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2957,7 +3014,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2983,7 +3040,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3009,7 +3066,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3035,7 +3092,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3061,7 +3118,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3087,7 +3144,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3113,7 +3170,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3139,7 +3196,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3165,7 +3222,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3191,7 +3248,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3217,7 +3274,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3243,7 +3300,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3269,7 +3326,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3295,7 +3352,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3321,7 +3378,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3347,7 +3404,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3373,7 +3430,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3399,7 +3456,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3425,7 +3482,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3451,7 +3508,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3477,7 +3534,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3503,7 +3560,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3529,7 +3586,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3555,7 +3612,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3581,7 +3638,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3607,7 +3664,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3633,7 +3690,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3659,7 +3716,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3685,7 +3742,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3711,7 +3768,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3737,7 +3794,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3763,7 +3820,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3789,7 +3846,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3815,7 +3872,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3841,7 +3898,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3867,7 +3924,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3893,7 +3950,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3919,7 +3976,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3945,7 +4002,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3971,7 +4028,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3997,7 +4054,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4023,7 +4080,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4049,7 +4106,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4075,7 +4132,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4101,7 +4158,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4127,7 +4184,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4153,7 +4210,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4179,7 +4236,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4205,7 +4262,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4231,7 +4288,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4257,7 +4314,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4283,7 +4340,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4309,7 +4366,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4335,7 +4392,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4361,7 +4418,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4387,7 +4444,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4413,7 +4470,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4439,7 +4496,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4465,7 +4522,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4491,7 +4548,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4517,7 +4574,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4543,7 +4600,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4569,7 +4626,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4595,7 +4652,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4621,7 +4678,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4647,7 +4704,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4673,7 +4730,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4699,7 +4756,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4725,7 +4782,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4751,7 +4808,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4777,7 +4834,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4803,7 +4860,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4829,7 +4886,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4855,7 +4912,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4881,7 +4938,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4907,7 +4964,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4933,7 +4990,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4959,7 +5016,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4985,7 +5042,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5011,7 +5068,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5037,7 +5094,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5063,7 +5120,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5089,7 +5146,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5115,7 +5172,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5141,7 +5198,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5167,7 +5224,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5193,7 +5250,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5219,7 +5276,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5245,7 +5302,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5271,7 +5328,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5297,7 +5354,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5323,7 +5380,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5349,7 +5406,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5375,7 +5432,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5401,7 +5458,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5427,7 +5484,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5453,7 +5510,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5479,7 +5536,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5505,7 +5562,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5531,7 +5588,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5557,7 +5614,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5583,7 +5640,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5609,7 +5666,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5635,7 +5692,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5661,7 +5718,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5687,7 +5744,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5713,7 +5770,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5739,7 +5796,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5765,7 +5822,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5791,7 +5848,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5817,7 +5874,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5843,7 +5900,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5869,7 +5926,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5895,7 +5952,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5921,7 +5978,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5947,7 +6004,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5973,7 +6030,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5999,7 +6056,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6025,7 +6082,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6051,7 +6108,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6077,7 +6134,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6103,7 +6160,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6129,7 +6186,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6155,7 +6212,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6181,7 +6238,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6207,7 +6264,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6233,7 +6290,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6259,7 +6316,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6285,7 +6342,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6311,7 +6368,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6337,7 +6394,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6363,7 +6420,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6389,7 +6446,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6415,7 +6472,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6441,7 +6498,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6467,7 +6524,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6493,7 +6550,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6519,7 +6576,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6545,7 +6602,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6571,7 +6628,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6597,7 +6654,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6623,7 +6680,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6649,7 +6706,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6675,7 +6732,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6701,7 +6758,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6727,7 +6784,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6753,7 +6810,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6779,7 +6836,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6805,7 +6862,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6831,7 +6888,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6857,7 +6914,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6883,7 +6940,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6909,7 +6966,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6935,7 +6992,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6961,7 +7018,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6987,7 +7044,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7013,7 +7070,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7039,7 +7096,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7065,7 +7122,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7091,7 +7148,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7117,7 +7174,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7143,7 +7200,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7169,7 +7226,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7195,7 +7252,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7221,7 +7278,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7247,7 +7304,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7273,7 +7330,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7299,7 +7356,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7325,7 +7382,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7351,7 +7408,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7377,7 +7434,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7403,7 +7460,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7429,7 +7486,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7455,7 +7512,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7481,7 +7538,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7507,7 +7564,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7533,7 +7590,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7559,7 +7616,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7585,7 +7642,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7611,7 +7668,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7637,7 +7694,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7663,7 +7720,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7689,7 +7746,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7715,7 +7772,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7741,7 +7798,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7767,7 +7824,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7793,7 +7850,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7819,7 +7876,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7845,7 +7902,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7871,7 +7928,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7897,7 +7954,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7923,7 +7980,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7949,7 +8006,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7975,7 +8032,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8001,7 +8058,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8027,7 +8084,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8053,7 +8110,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8079,7 +8136,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8105,7 +8162,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8131,7 +8188,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8157,7 +8214,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8183,7 +8240,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8209,7 +8266,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8235,7 +8292,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8261,7 +8318,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8287,7 +8344,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8313,7 +8370,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8339,7 +8396,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8365,7 +8422,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8391,7 +8448,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8417,7 +8474,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8443,7 +8500,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8469,7 +8526,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8495,7 +8552,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8521,7 +8578,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8547,7 +8604,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8573,7 +8630,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8599,7 +8656,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8625,7 +8682,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8651,7 +8708,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8677,7 +8734,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8703,7 +8760,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8729,7 +8786,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8755,7 +8812,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8781,7 +8838,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8807,7 +8864,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8833,7 +8890,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8859,7 +8916,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8885,7 +8942,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8911,7 +8968,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8937,7 +8994,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -8963,7 +9020,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -8989,7 +9046,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9015,7 +9072,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9041,7 +9098,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9067,7 +9124,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9093,7 +9150,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9119,7 +9176,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9145,7 +9202,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9171,7 +9228,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9197,7 +9254,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9223,7 +9280,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9249,7 +9306,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9275,7 +9332,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9301,7 +9358,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9327,7 +9384,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9353,7 +9410,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9379,7 +9436,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9405,7 +9462,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9431,7 +9488,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9457,7 +9514,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9483,7 +9540,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9509,7 +9566,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9535,7 +9592,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9561,7 +9618,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9587,7 +9644,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9613,7 +9670,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9639,7 +9696,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9665,7 +9722,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9691,7 +9748,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9717,7 +9774,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9743,7 +9800,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -9769,7 +9826,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -9795,7 +9852,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -9821,7 +9878,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -9847,7 +9904,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -9873,7 +9930,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -9899,7 +9956,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -9925,7 +9982,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -9951,7 +10008,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -9977,7 +10034,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10003,7 +10060,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10029,7 +10086,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10055,7 +10112,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10081,7 +10138,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10107,7 +10164,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10133,7 +10190,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10159,7 +10216,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10185,7 +10242,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10211,7 +10268,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10237,7 +10294,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10263,7 +10320,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10289,7 +10346,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10315,7 +10372,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10341,7 +10398,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10367,7 +10424,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10393,7 +10450,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10419,7 +10476,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10445,7 +10502,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10471,7 +10528,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10497,7 +10554,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10523,7 +10580,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10549,7 +10606,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10575,7 +10632,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10601,7 +10658,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10627,7 +10684,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10653,7 +10710,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -10679,7 +10736,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -10705,7 +10762,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -10731,7 +10788,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -10757,7 +10814,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -10783,7 +10840,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -10809,7 +10866,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -10835,7 +10892,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -10861,7 +10918,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -10887,7 +10944,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -10913,7 +10970,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -10939,7 +10996,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -10965,7 +11022,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -10991,7 +11048,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11017,7 +11074,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11043,7 +11100,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11069,7 +11126,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11095,7 +11152,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11121,7 +11178,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11147,7 +11204,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11173,7 +11230,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11199,7 +11256,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11225,7 +11282,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11251,7 +11308,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11277,7 +11334,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11303,7 +11360,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11329,7 +11386,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11355,7 +11412,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11381,7 +11438,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11407,7 +11464,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11433,7 +11490,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11459,7 +11516,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11485,7 +11542,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11511,7 +11568,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11537,7 +11594,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11563,7 +11620,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11589,7 +11646,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -11615,7 +11672,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -11641,7 +11698,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -11667,7 +11724,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -11693,7 +11750,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -11719,7 +11776,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -11745,7 +11802,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -11771,7 +11828,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -11797,7 +11854,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -11823,7 +11880,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -11849,7 +11906,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -11875,7 +11932,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -11901,7 +11958,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -11927,7 +11984,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -11953,7 +12010,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -11979,7 +12036,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12005,7 +12062,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12031,7 +12088,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12057,7 +12114,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12083,7 +12140,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12109,7 +12166,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12135,7 +12192,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12161,7 +12218,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12187,7 +12244,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12213,7 +12270,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12239,7 +12296,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12265,7 +12322,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12291,7 +12348,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12317,7 +12374,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12343,7 +12400,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12369,7 +12426,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12395,7 +12452,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12421,7 +12478,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12447,7 +12504,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12473,7 +12530,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -12499,7 +12556,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -12525,7 +12582,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -12551,7 +12608,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -12577,7 +12634,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -12603,7 +12660,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -12629,7 +12686,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -12655,7 +12712,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -12681,7 +12738,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -12707,7 +12764,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -12733,7 +12790,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -12759,7 +12816,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -12785,7 +12842,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -12811,7 +12868,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -12837,7 +12894,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -12863,7 +12920,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -12889,7 +12946,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -12915,7 +12972,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -12941,7 +12998,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -12967,7 +13024,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -12993,7 +13050,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13019,7 +13076,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13045,7 +13102,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13071,7 +13128,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13097,7 +13154,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13123,7 +13180,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13149,7 +13206,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13175,7 +13232,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13201,7 +13258,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13227,7 +13284,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13253,7 +13310,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13279,7 +13336,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13305,7 +13362,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13331,7 +13388,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13357,7 +13414,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13383,7 +13440,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13409,7 +13466,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13435,7 +13492,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13461,7 +13518,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -13487,7 +13544,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -13513,7 +13570,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -13539,7 +13596,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -13565,7 +13622,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -13591,7 +13648,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -13617,7 +13674,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -13643,7 +13700,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -13669,7 +13726,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -13695,7 +13752,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -13721,7 +13778,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -13747,7 +13804,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -13773,7 +13830,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -13799,7 +13856,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -13825,7 +13882,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -13851,7 +13908,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -13877,7 +13934,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -13903,7 +13960,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -13929,7 +13986,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -13955,7 +14012,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -13981,7 +14038,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14007,7 +14064,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14033,7 +14090,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14059,7 +14116,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14085,7 +14142,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14111,7 +14168,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14137,7 +14194,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14163,7 +14220,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14189,7 +14246,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14215,7 +14272,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14241,7 +14298,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14267,7 +14324,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14293,7 +14350,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14319,7 +14376,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14345,7 +14402,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14371,7 +14428,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -14397,7 +14454,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -14423,7 +14480,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -14449,7 +14506,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -14475,7 +14532,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -14501,7 +14558,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -14527,7 +14584,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -14553,7 +14610,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -14579,7 +14636,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -14605,7 +14662,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -14631,7 +14688,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -14657,7 +14714,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -14683,7 +14740,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -14709,7 +14766,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -14735,7 +14792,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -14761,7 +14818,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -14787,7 +14844,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -14813,7 +14870,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -14839,7 +14896,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -14865,7 +14922,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -14891,7 +14948,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -14917,7 +14974,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -14943,7 +15000,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -14969,7 +15026,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -14995,7 +15052,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15021,7 +15078,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15047,7 +15104,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15073,7 +15130,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15099,7 +15156,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15125,7 +15182,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15151,7 +15208,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15177,7 +15234,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15203,7 +15260,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15229,7 +15286,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15255,7 +15312,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15281,7 +15338,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15307,7 +15364,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -15333,7 +15390,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -15359,7 +15416,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -15385,7 +15442,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -15411,7 +15468,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -15437,7 +15494,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -15463,7 +15520,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -15489,7 +15546,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -15515,7 +15572,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -15541,7 +15598,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -15567,7 +15624,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -15593,7 +15650,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -15619,7 +15676,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -15645,7 +15702,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -15671,7 +15728,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -15697,7 +15754,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -15723,7 +15780,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -15749,7 +15806,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -15775,7 +15832,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -15801,7 +15858,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -15827,7 +15884,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -15853,7 +15910,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -15879,7 +15936,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -15905,7 +15962,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -15931,7 +15988,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -15957,7 +16014,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -15983,7 +16040,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -16009,7 +16066,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16035,7 +16092,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16061,7 +16118,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16087,7 +16144,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16113,7 +16170,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16139,7 +16196,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16165,7 +16222,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16191,7 +16248,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16217,7 +16274,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -16243,7 +16300,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -16269,7 +16326,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -16295,7 +16352,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -16321,7 +16378,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -16347,7 +16404,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -16373,7 +16430,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -16399,7 +16456,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -16425,7 +16482,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -16451,7 +16508,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -16477,7 +16534,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -16503,7 +16560,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -16529,7 +16586,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -16555,7 +16612,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -16581,7 +16638,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -16607,7 +16664,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -16633,7 +16690,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -16659,7 +16716,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -16685,7 +16742,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -16711,7 +16768,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -16737,7 +16794,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -16763,7 +16820,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -16789,7 +16846,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -16815,7 +16872,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -16841,7 +16898,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -16867,7 +16924,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -16893,7 +16950,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -16919,7 +16976,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -16945,7 +17002,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -16971,7 +17028,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -16997,7 +17054,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -17023,7 +17080,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -17049,7 +17106,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -17075,7 +17132,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -17101,7 +17158,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -17127,7 +17184,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -17153,7 +17210,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -17179,7 +17236,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -17205,7 +17262,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -17231,7 +17288,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -17257,7 +17314,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -17283,7 +17340,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -17309,7 +17366,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -17335,7 +17392,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -17361,7 +17418,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -17387,7 +17444,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -17413,7 +17470,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -17439,7 +17496,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -17465,7 +17522,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -17491,7 +17548,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -17517,7 +17574,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -17543,7 +17600,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -17569,7 +17626,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -17595,7 +17652,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -17621,7 +17678,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -17647,7 +17704,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -17673,7 +17730,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -17699,7 +17756,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -17725,7 +17782,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -17751,7 +17808,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -17777,7 +17834,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -17803,7 +17860,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -17829,7 +17886,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -17855,7 +17912,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -17881,7 +17938,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -17907,7 +17964,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -17933,7 +17990,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -17959,7 +18016,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -17985,7 +18042,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -18011,7 +18068,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -18037,7 +18094,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -18063,7 +18120,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -18089,7 +18146,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -18115,7 +18172,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -18141,7 +18198,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -18167,7 +18224,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -18193,7 +18250,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -18219,7 +18276,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -18245,7 +18302,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -18271,7 +18328,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -18297,7 +18354,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -18323,7 +18380,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -18349,7 +18406,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -18375,7 +18432,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -18401,7 +18458,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -18427,7 +18484,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -18453,7 +18510,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -18479,7 +18536,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -18505,7 +18562,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -18531,7 +18588,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -18557,7 +18614,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -18583,7 +18640,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -18609,7 +18666,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -18635,7 +18692,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -18661,7 +18718,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -18687,7 +18744,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -18713,7 +18770,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -18739,7 +18796,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -18765,7 +18822,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -18791,7 +18848,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -18817,7 +18874,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -18843,7 +18900,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -18869,7 +18926,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -18895,7 +18952,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -18921,7 +18978,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -18947,7 +19004,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -18973,7 +19030,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -18999,7 +19056,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -19025,7 +19082,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -19051,7 +19108,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -19077,7 +19134,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -19103,7 +19160,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -19129,7 +19186,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -19155,7 +19212,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -19181,7 +19238,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -19207,7 +19264,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -19233,7 +19290,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -19259,7 +19316,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -19285,7 +19342,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -19311,7 +19368,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -19337,7 +19394,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -19363,7 +19420,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -19389,7 +19446,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -19415,7 +19472,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -19441,7 +19498,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -19467,7 +19524,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -19493,7 +19550,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -19519,7 +19576,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -19545,7 +19602,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -19571,7 +19628,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -19597,7 +19654,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -19623,7 +19680,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -19649,7 +19706,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -19675,7 +19732,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -19701,7 +19758,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -19727,7 +19784,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -19753,7 +19810,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -19779,7 +19836,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -19805,7 +19862,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -19831,7 +19888,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -19857,7 +19914,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -19883,7 +19940,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -19909,7 +19966,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -19935,7 +19992,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -19961,7 +20018,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -19987,7 +20044,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -20013,7 +20070,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -20039,7 +20096,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -20065,7 +20122,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -20091,7 +20148,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -20117,7 +20174,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -20143,7 +20200,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -20169,7 +20226,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -20195,7 +20252,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -20221,7 +20278,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -20247,7 +20304,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -20273,7 +20330,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -20299,7 +20356,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -20325,7 +20382,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -20351,7 +20408,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -20377,7 +20434,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -20403,7 +20460,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -20429,7 +20486,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -20455,7 +20512,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -20481,7 +20538,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -20507,7 +20564,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -20533,7 +20590,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -20559,7 +20616,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -20585,7 +20642,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -20611,7 +20668,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -20637,7 +20694,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -20663,7 +20720,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -20689,7 +20746,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -20715,7 +20772,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -20741,7 +20798,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -20767,7 +20824,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -20793,7 +20850,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -20819,7 +20876,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -20845,7 +20902,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -20871,7 +20928,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -20897,7 +20954,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -20923,7 +20980,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -20949,7 +21006,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -20975,7 +21032,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -21001,7 +21058,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -21027,7 +21084,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -21053,7 +21110,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -21079,7 +21136,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -21105,7 +21162,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -21131,7 +21188,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -21157,7 +21214,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -21183,7 +21240,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -21209,7 +21266,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -21235,7 +21292,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -21261,7 +21318,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -21287,7 +21344,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -21313,7 +21370,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -21339,7 +21396,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -21365,7 +21422,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -21391,7 +21448,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -21417,7 +21474,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -21443,7 +21500,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -21469,7 +21526,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -21495,7 +21552,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -21521,7 +21578,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -21547,7 +21604,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -21573,7 +21630,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -21599,7 +21656,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -21625,7 +21682,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -21651,7 +21708,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -21677,7 +21734,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -21703,7 +21760,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -21729,7 +21786,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -21755,7 +21812,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -21781,7 +21838,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -21807,7 +21864,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -21833,7 +21890,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -21859,7 +21916,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -21885,7 +21942,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -21911,7 +21968,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -21937,7 +21994,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -21963,7 +22020,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -21989,7 +22046,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -22015,7 +22072,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -22041,7 +22098,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -22067,7 +22124,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -22093,7 +22150,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -22119,7 +22176,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -22145,7 +22202,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -22171,7 +22228,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -22197,7 +22254,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -22223,7 +22280,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -22249,7 +22306,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -22275,7 +22332,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -22301,7 +22358,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -22327,7 +22384,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -22353,7 +22410,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -22379,7 +22436,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -22405,7 +22462,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -22431,7 +22488,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -22457,7 +22514,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -22483,7 +22540,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -22509,7 +22566,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -22535,7 +22592,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -22561,7 +22618,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -22587,7 +22644,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -22613,7 +22670,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -22639,7 +22696,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -22665,7 +22722,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -22691,7 +22748,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -22717,7 +22774,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -22743,7 +22800,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -22769,7 +22826,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -22795,7 +22852,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -22821,7 +22878,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -22847,7 +22904,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -22873,7 +22930,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -22899,7 +22956,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -22925,7 +22982,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -22951,7 +23008,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -22977,7 +23034,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -23003,7 +23060,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -23029,7 +23086,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -23055,7 +23112,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -23081,7 +23138,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -23107,7 +23164,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -23133,7 +23190,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -23159,7 +23216,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -23185,7 +23242,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -23211,7 +23268,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -23237,7 +23294,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -23263,7 +23320,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -23289,7 +23346,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -23315,7 +23372,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -23341,7 +23398,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -23367,7 +23424,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -23393,7 +23450,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -23419,7 +23476,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -23445,7 +23502,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -23471,7 +23528,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -23497,7 +23554,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -23523,7 +23580,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -23549,7 +23606,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -23575,7 +23632,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -23601,7 +23658,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -23627,7 +23684,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -23653,7 +23710,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -23679,7 +23736,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -23705,7 +23762,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -23731,7 +23788,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -23757,7 +23814,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -23783,7 +23840,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -23809,7 +23866,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -23835,7 +23892,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -23861,7 +23918,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -23887,7 +23944,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -23913,7 +23970,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -23939,7 +23996,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -23965,7 +24022,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -23991,7 +24048,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -24017,7 +24074,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -24043,7 +24100,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -24069,7 +24126,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -24095,7 +24152,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -24121,7 +24178,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -24147,7 +24204,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -24173,7 +24230,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -24199,7 +24256,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -24225,7 +24282,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -24251,7 +24308,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -24277,7 +24334,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -24303,7 +24360,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -24329,7 +24386,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -24355,7 +24412,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -24381,7 +24438,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -24407,7 +24464,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -24433,7 +24490,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -24459,7 +24516,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -24485,7 +24542,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -24511,7 +24568,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -24537,7 +24594,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -24563,7 +24620,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -24589,7 +24646,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -24615,7 +24672,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -24641,7 +24698,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -24667,7 +24724,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -24693,7 +24750,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -24719,7 +24776,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -24745,7 +24802,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -24771,7 +24828,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -24797,7 +24854,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -24823,7 +24880,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -24849,7 +24906,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -24875,7 +24932,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -24901,7 +24958,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -24927,7 +24984,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -24953,7 +25010,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -24979,7 +25036,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -25005,7 +25062,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -25031,7 +25088,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -25057,7 +25114,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -25083,7 +25140,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -25109,7 +25166,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -25135,7 +25192,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -25161,7 +25218,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -25187,7 +25244,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -25213,7 +25270,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -25239,7 +25296,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -25265,7 +25322,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -25291,7 +25348,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -25317,7 +25374,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -25343,7 +25400,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -25369,7 +25426,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -25395,7 +25452,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -25421,7 +25478,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -25447,7 +25504,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -25473,7 +25530,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -25499,7 +25556,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -25525,7 +25582,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -25551,7 +25608,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -25577,7 +25634,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -25603,7 +25660,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -25629,7 +25686,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -25655,7 +25712,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -25681,7 +25738,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -25707,7 +25764,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -25733,7 +25790,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -25759,7 +25816,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -25785,7 +25842,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -25811,7 +25868,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -25837,7 +25894,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -25863,7 +25920,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -25889,7 +25946,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -25915,7 +25972,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -25941,7 +25998,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -25967,7 +26024,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -25993,7 +26050,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -26019,7 +26076,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -26045,7 +26102,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -26071,7 +26128,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -26097,7 +26154,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -26123,7 +26180,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -26149,7 +26206,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -26175,7 +26232,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -26201,7 +26258,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -26227,7 +26284,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -26253,7 +26310,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -26279,7 +26336,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -26305,7 +26362,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -26331,7 +26388,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -26357,7 +26414,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -26383,7 +26440,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -26409,7 +26466,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -26435,7 +26492,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -26461,7 +26518,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -26487,7 +26544,7 @@
       <c r="W985" s="1"/>
       <c r="X985" s="1"/>
     </row>
-    <row r="986" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -26513,7 +26570,7 @@
       <c r="W986" s="1"/>
       <c r="X986" s="1"/>
     </row>
-    <row r="987" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -26539,7 +26596,7 @@
       <c r="W987" s="1"/>
       <c r="X987" s="1"/>
     </row>
-    <row r="988" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -26565,7 +26622,7 @@
       <c r="W988" s="1"/>
       <c r="X988" s="1"/>
     </row>
-    <row r="989" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -26591,7 +26648,7 @@
       <c r="W989" s="1"/>
       <c r="X989" s="1"/>
     </row>
-    <row r="990" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -26617,7 +26674,7 @@
       <c r="W990" s="1"/>
       <c r="X990" s="1"/>
     </row>
-    <row r="991" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -26643,7 +26700,7 @@
       <c r="W991" s="1"/>
       <c r="X991" s="1"/>
     </row>
-    <row r="992" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -26669,7 +26726,7 @@
       <c r="W992" s="1"/>
       <c r="X992" s="1"/>
     </row>
-    <row r="993" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -26695,7 +26752,7 @@
       <c r="W993" s="1"/>
       <c r="X993" s="1"/>
     </row>
-    <row r="994" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -26721,7 +26778,7 @@
       <c r="W994" s="1"/>
       <c r="X994" s="1"/>
     </row>
-    <row r="995" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -26747,7 +26804,7 @@
       <c r="W995" s="1"/>
       <c r="X995" s="1"/>
     </row>
-    <row r="996" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -26773,7 +26830,7 @@
       <c r="W996" s="1"/>
       <c r="X996" s="1"/>
     </row>
-    <row r="997" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>

--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clone_GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\45K211_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77350BF0-A921-4B94-A3DB-9677A932AE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2F3C8B-4EC7-405A-A57A-AA26BDB86DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Đạt</t>
+  </si>
+  <si>
+    <t>max, min bao nhiêu kí tự</t>
   </si>
 </sst>
 </file>
@@ -693,20 +696,20 @@
   </sheetPr>
   <dimension ref="A1:X997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="50.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -734,7 +737,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -770,7 +773,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -798,7 +801,7 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -830,7 +833,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -862,7 +865,7 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
@@ -894,7 +897,7 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -926,7 +929,7 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" spans="1:24" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>15</v>
@@ -958,7 +961,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>17</v>
@@ -990,7 +993,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -1022,7 +1025,7 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>21</v>
@@ -1054,7 +1057,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>23</v>
@@ -1086,7 +1089,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
@@ -1118,7 +1121,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -1150,7 +1153,7 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>29</v>
@@ -1182,7 +1185,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>31</v>
@@ -1214,7 +1217,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>32</v>
@@ -1246,7 +1249,7 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
@@ -1278,7 +1281,7 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>36</v>
@@ -1310,7 +1313,7 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>37</v>
@@ -1342,7 +1345,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>39</v>
@@ -1374,7 +1377,7 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>41</v>
@@ -1406,7 +1409,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
@@ -1434,7 +1437,7 @@
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
     </row>
-    <row r="24" spans="1:24" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>44</v>
@@ -1466,7 +1469,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>46</v>
@@ -1498,7 +1501,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
         <v>48</v>
@@ -1530,7 +1533,7 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" spans="1:24" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
         <v>50</v>
@@ -1562,7 +1565,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>52</v>
@@ -1594,7 +1597,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>54</v>
@@ -1626,7 +1629,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>56</v>
       </c>
@@ -1654,7 +1657,7 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>57</v>
@@ -1686,7 +1689,7 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>59</v>
@@ -1718,7 +1721,7 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>61</v>
       </c>
@@ -1752,7 +1755,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="6" t="s">
         <v>64</v>
@@ -1784,7 +1787,7 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>66</v>
       </c>
@@ -1818,7 +1821,7 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="6" t="s">
         <v>69</v>
@@ -1850,7 +1853,7 @@
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="6" t="s">
         <v>71</v>
@@ -1882,7 +1885,7 @@
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="6" t="s">
         <v>73</v>
@@ -1914,7 +1917,7 @@
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
     </row>
-    <row r="39" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>75</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
     </row>
-    <row r="40" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1974,10 +1977,12 @@
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -2000,7 +2005,7 @@
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2026,7 +2031,7 @@
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
     </row>
-    <row r="43" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2052,7 +2057,7 @@
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
     </row>
-    <row r="44" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2078,7 +2083,7 @@
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
     </row>
-    <row r="45" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2104,7 +2109,7 @@
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
     </row>
-    <row r="46" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2130,7 +2135,7 @@
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
     </row>
-    <row r="47" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2156,7 +2161,7 @@
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
     </row>
-    <row r="48" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2182,7 +2187,7 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
     </row>
-    <row r="49" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2208,7 +2213,7 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
     </row>
-    <row r="50" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2234,7 +2239,7 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
     </row>
-    <row r="51" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2260,7 +2265,7 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
     </row>
-    <row r="52" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2286,7 +2291,7 @@
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
     </row>
-    <row r="53" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2312,7 +2317,7 @@
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
     </row>
-    <row r="54" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2338,7 +2343,7 @@
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
     </row>
-    <row r="55" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2364,7 +2369,7 @@
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
     </row>
-    <row r="56" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2390,7 +2395,7 @@
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
     </row>
-    <row r="57" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2416,7 +2421,7 @@
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
     </row>
-    <row r="58" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2442,7 +2447,7 @@
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
     </row>
-    <row r="59" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2468,7 +2473,7 @@
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
     </row>
-    <row r="60" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2494,7 +2499,7 @@
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
     </row>
-    <row r="61" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2520,7 +2525,7 @@
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
     </row>
-    <row r="62" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2546,7 +2551,7 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
     </row>
-    <row r="63" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2572,7 +2577,7 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
     </row>
-    <row r="64" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2598,7 +2603,7 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
     </row>
-    <row r="65" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2624,7 +2629,7 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
     </row>
-    <row r="66" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2650,7 +2655,7 @@
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
     </row>
-    <row r="67" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2676,7 +2681,7 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
     </row>
-    <row r="68" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="7"/>
@@ -2702,7 +2707,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2728,7 +2733,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2754,7 +2759,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2780,7 +2785,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2806,7 +2811,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2832,7 +2837,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2858,7 +2863,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2884,7 +2889,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2910,7 +2915,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2936,7 +2941,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2962,7 +2967,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2988,7 +2993,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3014,7 +3019,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3040,7 +3045,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3066,7 +3071,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3092,7 +3097,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3118,7 +3123,7 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
     </row>
-    <row r="85" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3144,7 +3149,7 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
     </row>
-    <row r="86" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3170,7 +3175,7 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
     </row>
-    <row r="87" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3196,7 +3201,7 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
     </row>
-    <row r="88" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3222,7 +3227,7 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
     </row>
-    <row r="89" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3248,7 +3253,7 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
     </row>
-    <row r="90" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3274,7 +3279,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3300,7 +3305,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3326,7 +3331,7 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3352,7 +3357,7 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
     </row>
-    <row r="94" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3378,7 +3383,7 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
     </row>
-    <row r="95" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3404,7 +3409,7 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
     </row>
-    <row r="96" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3430,7 +3435,7 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
     </row>
-    <row r="97" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3456,7 +3461,7 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
     </row>
-    <row r="98" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3482,7 +3487,7 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
     </row>
-    <row r="99" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3508,7 +3513,7 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
     </row>
-    <row r="100" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3534,7 +3539,7 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
     </row>
-    <row r="101" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3560,7 +3565,7 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
     </row>
-    <row r="102" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3586,7 +3591,7 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
     </row>
-    <row r="103" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3612,7 +3617,7 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
     </row>
-    <row r="104" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3638,7 +3643,7 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
     </row>
-    <row r="105" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3664,7 +3669,7 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
     </row>
-    <row r="106" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3690,7 +3695,7 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
     </row>
-    <row r="107" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3716,7 +3721,7 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
     </row>
-    <row r="108" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3742,7 +3747,7 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
     </row>
-    <row r="109" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3768,7 +3773,7 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
     </row>
-    <row r="110" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3794,7 +3799,7 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
     </row>
-    <row r="111" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3820,7 +3825,7 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
     </row>
-    <row r="112" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3846,7 +3851,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3872,7 +3877,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3898,7 +3903,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3924,7 +3929,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3950,7 +3955,7 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3976,7 +3981,7 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4002,7 +4007,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4028,7 +4033,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4054,7 +4059,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4080,7 +4085,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4106,7 +4111,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4132,7 +4137,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4158,7 +4163,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4184,7 +4189,7 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
     </row>
-    <row r="126" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4210,7 +4215,7 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
     </row>
-    <row r="127" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4236,7 +4241,7 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
     </row>
-    <row r="128" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4262,7 +4267,7 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4288,7 +4293,7 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4314,7 +4319,7 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4340,7 +4345,7 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4366,7 +4371,7 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4392,7 +4397,7 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4418,7 +4423,7 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4444,7 +4449,7 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4470,7 +4475,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4496,7 +4501,7 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
     </row>
-    <row r="138" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4522,7 +4527,7 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
     </row>
-    <row r="139" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4548,7 +4553,7 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
     </row>
-    <row r="140" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4574,7 +4579,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4600,7 +4605,7 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
     </row>
-    <row r="142" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4626,7 +4631,7 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
     </row>
-    <row r="143" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4652,7 +4657,7 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
     </row>
-    <row r="144" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4678,7 +4683,7 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4704,7 +4709,7 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
     </row>
-    <row r="146" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4730,7 +4735,7 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
     </row>
-    <row r="147" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4756,7 +4761,7 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
     </row>
-    <row r="148" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4782,7 +4787,7 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
     </row>
-    <row r="149" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4808,7 +4813,7 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
     </row>
-    <row r="150" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4834,7 +4839,7 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
     </row>
-    <row r="151" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4860,7 +4865,7 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
     </row>
-    <row r="152" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4886,7 +4891,7 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
     </row>
-    <row r="153" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4912,7 +4917,7 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
     </row>
-    <row r="154" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4938,7 +4943,7 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
     </row>
-    <row r="155" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4964,7 +4969,7 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
     </row>
-    <row r="156" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4990,7 +4995,7 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
     </row>
-    <row r="157" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5016,7 +5021,7 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
     </row>
-    <row r="158" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5042,7 +5047,7 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5068,7 +5073,7 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5094,7 +5099,7 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5120,7 +5125,7 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5146,7 +5151,7 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5172,7 +5177,7 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5198,7 +5203,7 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5224,7 +5229,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5250,7 +5255,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5276,7 +5281,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5302,7 +5307,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5328,7 +5333,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5354,7 +5359,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5380,7 +5385,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5406,7 +5411,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5432,7 +5437,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5458,7 +5463,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5484,7 +5489,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5510,7 +5515,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5536,7 +5541,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5562,7 +5567,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5588,7 +5593,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5614,7 +5619,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5640,7 +5645,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5666,7 +5671,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5692,7 +5697,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5718,7 +5723,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5744,7 +5749,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5770,7 +5775,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5796,7 +5801,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5822,7 +5827,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5848,7 +5853,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5874,7 +5879,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5900,7 +5905,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5926,7 +5931,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5952,7 +5957,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5978,7 +5983,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6004,7 +6009,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6030,7 +6035,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6056,7 +6061,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6082,7 +6087,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6108,7 +6113,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6134,7 +6139,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6160,7 +6165,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6186,7 +6191,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6212,7 +6217,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6238,7 +6243,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6264,7 +6269,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6290,7 +6295,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6316,7 +6321,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6342,7 +6347,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6368,7 +6373,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6394,7 +6399,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6420,7 +6425,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6446,7 +6451,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6472,7 +6477,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6498,7 +6503,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6524,7 +6529,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6550,7 +6555,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6576,7 +6581,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6602,7 +6607,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6628,7 +6633,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6654,7 +6659,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6680,7 +6685,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6706,7 +6711,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6732,7 +6737,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6758,7 +6763,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6784,7 +6789,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6810,7 +6815,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6836,7 +6841,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6862,7 +6867,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6888,7 +6893,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6914,7 +6919,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6940,7 +6945,7 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6966,7 +6971,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6992,7 +6997,7 @@
       <c r="W233" s="1"/>
       <c r="X233" s="1"/>
     </row>
-    <row r="234" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7018,7 +7023,7 @@
       <c r="W234" s="1"/>
       <c r="X234" s="1"/>
     </row>
-    <row r="235" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7044,7 +7049,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7070,7 +7075,7 @@
       <c r="W236" s="1"/>
       <c r="X236" s="1"/>
     </row>
-    <row r="237" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7096,7 +7101,7 @@
       <c r="W237" s="1"/>
       <c r="X237" s="1"/>
     </row>
-    <row r="238" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7122,7 +7127,7 @@
       <c r="W238" s="1"/>
       <c r="X238" s="1"/>
     </row>
-    <row r="239" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7148,7 +7153,7 @@
       <c r="W239" s="1"/>
       <c r="X239" s="1"/>
     </row>
-    <row r="240" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7174,7 +7179,7 @@
       <c r="W240" s="1"/>
       <c r="X240" s="1"/>
     </row>
-    <row r="241" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7200,7 +7205,7 @@
       <c r="W241" s="1"/>
       <c r="X241" s="1"/>
     </row>
-    <row r="242" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7226,7 +7231,7 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
     </row>
-    <row r="243" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7252,7 +7257,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7278,7 +7283,7 @@
       <c r="W244" s="1"/>
       <c r="X244" s="1"/>
     </row>
-    <row r="245" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7304,7 +7309,7 @@
       <c r="W245" s="1"/>
       <c r="X245" s="1"/>
     </row>
-    <row r="246" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7330,7 +7335,7 @@
       <c r="W246" s="1"/>
       <c r="X246" s="1"/>
     </row>
-    <row r="247" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7356,7 +7361,7 @@
       <c r="W247" s="1"/>
       <c r="X247" s="1"/>
     </row>
-    <row r="248" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7382,7 +7387,7 @@
       <c r="W248" s="1"/>
       <c r="X248" s="1"/>
     </row>
-    <row r="249" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7408,7 +7413,7 @@
       <c r="W249" s="1"/>
       <c r="X249" s="1"/>
     </row>
-    <row r="250" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7434,7 +7439,7 @@
       <c r="W250" s="1"/>
       <c r="X250" s="1"/>
     </row>
-    <row r="251" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7460,7 +7465,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7486,7 +7491,7 @@
       <c r="W252" s="1"/>
       <c r="X252" s="1"/>
     </row>
-    <row r="253" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7512,7 +7517,7 @@
       <c r="W253" s="1"/>
       <c r="X253" s="1"/>
     </row>
-    <row r="254" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7538,7 +7543,7 @@
       <c r="W254" s="1"/>
       <c r="X254" s="1"/>
     </row>
-    <row r="255" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7564,7 +7569,7 @@
       <c r="W255" s="1"/>
       <c r="X255" s="1"/>
     </row>
-    <row r="256" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7590,7 +7595,7 @@
       <c r="W256" s="1"/>
       <c r="X256" s="1"/>
     </row>
-    <row r="257" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7616,7 +7621,7 @@
       <c r="W257" s="1"/>
       <c r="X257" s="1"/>
     </row>
-    <row r="258" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7642,7 +7647,7 @@
       <c r="W258" s="1"/>
       <c r="X258" s="1"/>
     </row>
-    <row r="259" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7668,7 +7673,7 @@
       <c r="W259" s="1"/>
       <c r="X259" s="1"/>
     </row>
-    <row r="260" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7694,7 +7699,7 @@
       <c r="W260" s="1"/>
       <c r="X260" s="1"/>
     </row>
-    <row r="261" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7720,7 +7725,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7746,7 +7751,7 @@
       <c r="W262" s="1"/>
       <c r="X262" s="1"/>
     </row>
-    <row r="263" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7772,7 +7777,7 @@
       <c r="W263" s="1"/>
       <c r="X263" s="1"/>
     </row>
-    <row r="264" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7798,7 +7803,7 @@
       <c r="W264" s="1"/>
       <c r="X264" s="1"/>
     </row>
-    <row r="265" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7824,7 +7829,7 @@
       <c r="W265" s="1"/>
       <c r="X265" s="1"/>
     </row>
-    <row r="266" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7850,7 +7855,7 @@
       <c r="W266" s="1"/>
       <c r="X266" s="1"/>
     </row>
-    <row r="267" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7876,7 +7881,7 @@
       <c r="W267" s="1"/>
       <c r="X267" s="1"/>
     </row>
-    <row r="268" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7902,7 +7907,7 @@
       <c r="W268" s="1"/>
       <c r="X268" s="1"/>
     </row>
-    <row r="269" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7928,7 +7933,7 @@
       <c r="W269" s="1"/>
       <c r="X269" s="1"/>
     </row>
-    <row r="270" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7954,7 +7959,7 @@
       <c r="W270" s="1"/>
       <c r="X270" s="1"/>
     </row>
-    <row r="271" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7980,7 +7985,7 @@
       <c r="W271" s="1"/>
       <c r="X271" s="1"/>
     </row>
-    <row r="272" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8006,7 +8011,7 @@
       <c r="W272" s="1"/>
       <c r="X272" s="1"/>
     </row>
-    <row r="273" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8032,7 +8037,7 @@
       <c r="W273" s="1"/>
       <c r="X273" s="1"/>
     </row>
-    <row r="274" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8058,7 +8063,7 @@
       <c r="W274" s="1"/>
       <c r="X274" s="1"/>
     </row>
-    <row r="275" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8084,7 +8089,7 @@
       <c r="W275" s="1"/>
       <c r="X275" s="1"/>
     </row>
-    <row r="276" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -8110,7 +8115,7 @@
       <c r="W276" s="1"/>
       <c r="X276" s="1"/>
     </row>
-    <row r="277" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -8136,7 +8141,7 @@
       <c r="W277" s="1"/>
       <c r="X277" s="1"/>
     </row>
-    <row r="278" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -8162,7 +8167,7 @@
       <c r="W278" s="1"/>
       <c r="X278" s="1"/>
     </row>
-    <row r="279" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -8188,7 +8193,7 @@
       <c r="W279" s="1"/>
       <c r="X279" s="1"/>
     </row>
-    <row r="280" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8214,7 +8219,7 @@
       <c r="W280" s="1"/>
       <c r="X280" s="1"/>
     </row>
-    <row r="281" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8240,7 +8245,7 @@
       <c r="W281" s="1"/>
       <c r="X281" s="1"/>
     </row>
-    <row r="282" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8266,7 +8271,7 @@
       <c r="W282" s="1"/>
       <c r="X282" s="1"/>
     </row>
-    <row r="283" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8292,7 +8297,7 @@
       <c r="W283" s="1"/>
       <c r="X283" s="1"/>
     </row>
-    <row r="284" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8318,7 +8323,7 @@
       <c r="W284" s="1"/>
       <c r="X284" s="1"/>
     </row>
-    <row r="285" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8344,7 +8349,7 @@
       <c r="W285" s="1"/>
       <c r="X285" s="1"/>
     </row>
-    <row r="286" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8370,7 +8375,7 @@
       <c r="W286" s="1"/>
       <c r="X286" s="1"/>
     </row>
-    <row r="287" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8396,7 +8401,7 @@
       <c r="W287" s="1"/>
       <c r="X287" s="1"/>
     </row>
-    <row r="288" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8422,7 +8427,7 @@
       <c r="W288" s="1"/>
       <c r="X288" s="1"/>
     </row>
-    <row r="289" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8448,7 +8453,7 @@
       <c r="W289" s="1"/>
       <c r="X289" s="1"/>
     </row>
-    <row r="290" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8474,7 +8479,7 @@
       <c r="W290" s="1"/>
       <c r="X290" s="1"/>
     </row>
-    <row r="291" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8500,7 +8505,7 @@
       <c r="W291" s="1"/>
       <c r="X291" s="1"/>
     </row>
-    <row r="292" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8526,7 +8531,7 @@
       <c r="W292" s="1"/>
       <c r="X292" s="1"/>
     </row>
-    <row r="293" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8552,7 +8557,7 @@
       <c r="W293" s="1"/>
       <c r="X293" s="1"/>
     </row>
-    <row r="294" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8578,7 +8583,7 @@
       <c r="W294" s="1"/>
       <c r="X294" s="1"/>
     </row>
-    <row r="295" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8604,7 +8609,7 @@
       <c r="W295" s="1"/>
       <c r="X295" s="1"/>
     </row>
-    <row r="296" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8630,7 +8635,7 @@
       <c r="W296" s="1"/>
       <c r="X296" s="1"/>
     </row>
-    <row r="297" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8656,7 +8661,7 @@
       <c r="W297" s="1"/>
       <c r="X297" s="1"/>
     </row>
-    <row r="298" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8682,7 +8687,7 @@
       <c r="W298" s="1"/>
       <c r="X298" s="1"/>
     </row>
-    <row r="299" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8708,7 +8713,7 @@
       <c r="W299" s="1"/>
       <c r="X299" s="1"/>
     </row>
-    <row r="300" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8734,7 +8739,7 @@
       <c r="W300" s="1"/>
       <c r="X300" s="1"/>
     </row>
-    <row r="301" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8760,7 +8765,7 @@
       <c r="W301" s="1"/>
       <c r="X301" s="1"/>
     </row>
-    <row r="302" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8786,7 +8791,7 @@
       <c r="W302" s="1"/>
       <c r="X302" s="1"/>
     </row>
-    <row r="303" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8812,7 +8817,7 @@
       <c r="W303" s="1"/>
       <c r="X303" s="1"/>
     </row>
-    <row r="304" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8838,7 +8843,7 @@
       <c r="W304" s="1"/>
       <c r="X304" s="1"/>
     </row>
-    <row r="305" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8864,7 +8869,7 @@
       <c r="W305" s="1"/>
       <c r="X305" s="1"/>
     </row>
-    <row r="306" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8890,7 +8895,7 @@
       <c r="W306" s="1"/>
       <c r="X306" s="1"/>
     </row>
-    <row r="307" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8916,7 +8921,7 @@
       <c r="W307" s="1"/>
       <c r="X307" s="1"/>
     </row>
-    <row r="308" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8942,7 +8947,7 @@
       <c r="W308" s="1"/>
       <c r="X308" s="1"/>
     </row>
-    <row r="309" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8968,7 +8973,7 @@
       <c r="W309" s="1"/>
       <c r="X309" s="1"/>
     </row>
-    <row r="310" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8994,7 +8999,7 @@
       <c r="W310" s="1"/>
       <c r="X310" s="1"/>
     </row>
-    <row r="311" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9020,7 +9025,7 @@
       <c r="W311" s="1"/>
       <c r="X311" s="1"/>
     </row>
-    <row r="312" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -9046,7 +9051,7 @@
       <c r="W312" s="1"/>
       <c r="X312" s="1"/>
     </row>
-    <row r="313" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -9072,7 +9077,7 @@
       <c r="W313" s="1"/>
       <c r="X313" s="1"/>
     </row>
-    <row r="314" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -9098,7 +9103,7 @@
       <c r="W314" s="1"/>
       <c r="X314" s="1"/>
     </row>
-    <row r="315" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -9124,7 +9129,7 @@
       <c r="W315" s="1"/>
       <c r="X315" s="1"/>
     </row>
-    <row r="316" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -9150,7 +9155,7 @@
       <c r="W316" s="1"/>
       <c r="X316" s="1"/>
     </row>
-    <row r="317" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9176,7 +9181,7 @@
       <c r="W317" s="1"/>
       <c r="X317" s="1"/>
     </row>
-    <row r="318" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9202,7 +9207,7 @@
       <c r="W318" s="1"/>
       <c r="X318" s="1"/>
     </row>
-    <row r="319" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9228,7 +9233,7 @@
       <c r="W319" s="1"/>
       <c r="X319" s="1"/>
     </row>
-    <row r="320" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9254,7 +9259,7 @@
       <c r="W320" s="1"/>
       <c r="X320" s="1"/>
     </row>
-    <row r="321" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9280,7 +9285,7 @@
       <c r="W321" s="1"/>
       <c r="X321" s="1"/>
     </row>
-    <row r="322" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9306,7 +9311,7 @@
       <c r="W322" s="1"/>
       <c r="X322" s="1"/>
     </row>
-    <row r="323" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9332,7 +9337,7 @@
       <c r="W323" s="1"/>
       <c r="X323" s="1"/>
     </row>
-    <row r="324" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9358,7 +9363,7 @@
       <c r="W324" s="1"/>
       <c r="X324" s="1"/>
     </row>
-    <row r="325" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9384,7 +9389,7 @@
       <c r="W325" s="1"/>
       <c r="X325" s="1"/>
     </row>
-    <row r="326" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9410,7 +9415,7 @@
       <c r="W326" s="1"/>
       <c r="X326" s="1"/>
     </row>
-    <row r="327" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9436,7 +9441,7 @@
       <c r="W327" s="1"/>
       <c r="X327" s="1"/>
     </row>
-    <row r="328" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9462,7 +9467,7 @@
       <c r="W328" s="1"/>
       <c r="X328" s="1"/>
     </row>
-    <row r="329" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9488,7 +9493,7 @@
       <c r="W329" s="1"/>
       <c r="X329" s="1"/>
     </row>
-    <row r="330" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9514,7 +9519,7 @@
       <c r="W330" s="1"/>
       <c r="X330" s="1"/>
     </row>
-    <row r="331" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9540,7 +9545,7 @@
       <c r="W331" s="1"/>
       <c r="X331" s="1"/>
     </row>
-    <row r="332" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9566,7 +9571,7 @@
       <c r="W332" s="1"/>
       <c r="X332" s="1"/>
     </row>
-    <row r="333" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9592,7 +9597,7 @@
       <c r="W333" s="1"/>
       <c r="X333" s="1"/>
     </row>
-    <row r="334" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9618,7 +9623,7 @@
       <c r="W334" s="1"/>
       <c r="X334" s="1"/>
     </row>
-    <row r="335" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9644,7 +9649,7 @@
       <c r="W335" s="1"/>
       <c r="X335" s="1"/>
     </row>
-    <row r="336" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9670,7 +9675,7 @@
       <c r="W336" s="1"/>
       <c r="X336" s="1"/>
     </row>
-    <row r="337" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9696,7 +9701,7 @@
       <c r="W337" s="1"/>
       <c r="X337" s="1"/>
     </row>
-    <row r="338" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9722,7 +9727,7 @@
       <c r="W338" s="1"/>
       <c r="X338" s="1"/>
     </row>
-    <row r="339" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9748,7 +9753,7 @@
       <c r="W339" s="1"/>
       <c r="X339" s="1"/>
     </row>
-    <row r="340" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9774,7 +9779,7 @@
       <c r="W340" s="1"/>
       <c r="X340" s="1"/>
     </row>
-    <row r="341" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9800,7 +9805,7 @@
       <c r="W341" s="1"/>
       <c r="X341" s="1"/>
     </row>
-    <row r="342" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -9826,7 +9831,7 @@
       <c r="W342" s="1"/>
       <c r="X342" s="1"/>
     </row>
-    <row r="343" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -9852,7 +9857,7 @@
       <c r="W343" s="1"/>
       <c r="X343" s="1"/>
     </row>
-    <row r="344" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -9878,7 +9883,7 @@
       <c r="W344" s="1"/>
       <c r="X344" s="1"/>
     </row>
-    <row r="345" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -9904,7 +9909,7 @@
       <c r="W345" s="1"/>
       <c r="X345" s="1"/>
     </row>
-    <row r="346" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -9930,7 +9935,7 @@
       <c r="W346" s="1"/>
       <c r="X346" s="1"/>
     </row>
-    <row r="347" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -9956,7 +9961,7 @@
       <c r="W347" s="1"/>
       <c r="X347" s="1"/>
     </row>
-    <row r="348" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -9982,7 +9987,7 @@
       <c r="W348" s="1"/>
       <c r="X348" s="1"/>
     </row>
-    <row r="349" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10008,7 +10013,7 @@
       <c r="W349" s="1"/>
       <c r="X349" s="1"/>
     </row>
-    <row r="350" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10034,7 +10039,7 @@
       <c r="W350" s="1"/>
       <c r="X350" s="1"/>
     </row>
-    <row r="351" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10060,7 +10065,7 @@
       <c r="W351" s="1"/>
       <c r="X351" s="1"/>
     </row>
-    <row r="352" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10086,7 +10091,7 @@
       <c r="W352" s="1"/>
       <c r="X352" s="1"/>
     </row>
-    <row r="353" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10112,7 +10117,7 @@
       <c r="W353" s="1"/>
       <c r="X353" s="1"/>
     </row>
-    <row r="354" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10138,7 +10143,7 @@
       <c r="W354" s="1"/>
       <c r="X354" s="1"/>
     </row>
-    <row r="355" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10164,7 +10169,7 @@
       <c r="W355" s="1"/>
       <c r="X355" s="1"/>
     </row>
-    <row r="356" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10190,7 +10195,7 @@
       <c r="W356" s="1"/>
       <c r="X356" s="1"/>
     </row>
-    <row r="357" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10216,7 +10221,7 @@
       <c r="W357" s="1"/>
       <c r="X357" s="1"/>
     </row>
-    <row r="358" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10242,7 +10247,7 @@
       <c r="W358" s="1"/>
       <c r="X358" s="1"/>
     </row>
-    <row r="359" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10268,7 +10273,7 @@
       <c r="W359" s="1"/>
       <c r="X359" s="1"/>
     </row>
-    <row r="360" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10294,7 +10299,7 @@
       <c r="W360" s="1"/>
       <c r="X360" s="1"/>
     </row>
-    <row r="361" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10320,7 +10325,7 @@
       <c r="W361" s="1"/>
       <c r="X361" s="1"/>
     </row>
-    <row r="362" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10346,7 +10351,7 @@
       <c r="W362" s="1"/>
       <c r="X362" s="1"/>
     </row>
-    <row r="363" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10372,7 +10377,7 @@
       <c r="W363" s="1"/>
       <c r="X363" s="1"/>
     </row>
-    <row r="364" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10398,7 +10403,7 @@
       <c r="W364" s="1"/>
       <c r="X364" s="1"/>
     </row>
-    <row r="365" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10424,7 +10429,7 @@
       <c r="W365" s="1"/>
       <c r="X365" s="1"/>
     </row>
-    <row r="366" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10450,7 +10455,7 @@
       <c r="W366" s="1"/>
       <c r="X366" s="1"/>
     </row>
-    <row r="367" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10476,7 +10481,7 @@
       <c r="W367" s="1"/>
       <c r="X367" s="1"/>
     </row>
-    <row r="368" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10502,7 +10507,7 @@
       <c r="W368" s="1"/>
       <c r="X368" s="1"/>
     </row>
-    <row r="369" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10528,7 +10533,7 @@
       <c r="W369" s="1"/>
       <c r="X369" s="1"/>
     </row>
-    <row r="370" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10554,7 +10559,7 @@
       <c r="W370" s="1"/>
       <c r="X370" s="1"/>
     </row>
-    <row r="371" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10580,7 +10585,7 @@
       <c r="W371" s="1"/>
       <c r="X371" s="1"/>
     </row>
-    <row r="372" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10606,7 +10611,7 @@
       <c r="W372" s="1"/>
       <c r="X372" s="1"/>
     </row>
-    <row r="373" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10632,7 +10637,7 @@
       <c r="W373" s="1"/>
       <c r="X373" s="1"/>
     </row>
-    <row r="374" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10658,7 +10663,7 @@
       <c r="W374" s="1"/>
       <c r="X374" s="1"/>
     </row>
-    <row r="375" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10684,7 +10689,7 @@
       <c r="W375" s="1"/>
       <c r="X375" s="1"/>
     </row>
-    <row r="376" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10710,7 +10715,7 @@
       <c r="W376" s="1"/>
       <c r="X376" s="1"/>
     </row>
-    <row r="377" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -10736,7 +10741,7 @@
       <c r="W377" s="1"/>
       <c r="X377" s="1"/>
     </row>
-    <row r="378" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -10762,7 +10767,7 @@
       <c r="W378" s="1"/>
       <c r="X378" s="1"/>
     </row>
-    <row r="379" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -10788,7 +10793,7 @@
       <c r="W379" s="1"/>
       <c r="X379" s="1"/>
     </row>
-    <row r="380" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -10814,7 +10819,7 @@
       <c r="W380" s="1"/>
       <c r="X380" s="1"/>
     </row>
-    <row r="381" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -10840,7 +10845,7 @@
       <c r="W381" s="1"/>
       <c r="X381" s="1"/>
     </row>
-    <row r="382" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -10866,7 +10871,7 @@
       <c r="W382" s="1"/>
       <c r="X382" s="1"/>
     </row>
-    <row r="383" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -10892,7 +10897,7 @@
       <c r="W383" s="1"/>
       <c r="X383" s="1"/>
     </row>
-    <row r="384" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -10918,7 +10923,7 @@
       <c r="W384" s="1"/>
       <c r="X384" s="1"/>
     </row>
-    <row r="385" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -10944,7 +10949,7 @@
       <c r="W385" s="1"/>
       <c r="X385" s="1"/>
     </row>
-    <row r="386" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -10970,7 +10975,7 @@
       <c r="W386" s="1"/>
       <c r="X386" s="1"/>
     </row>
-    <row r="387" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -10996,7 +11001,7 @@
       <c r="W387" s="1"/>
       <c r="X387" s="1"/>
     </row>
-    <row r="388" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11022,7 +11027,7 @@
       <c r="W388" s="1"/>
       <c r="X388" s="1"/>
     </row>
-    <row r="389" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11048,7 +11053,7 @@
       <c r="W389" s="1"/>
       <c r="X389" s="1"/>
     </row>
-    <row r="390" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11074,7 +11079,7 @@
       <c r="W390" s="1"/>
       <c r="X390" s="1"/>
     </row>
-    <row r="391" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11100,7 +11105,7 @@
       <c r="W391" s="1"/>
       <c r="X391" s="1"/>
     </row>
-    <row r="392" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11126,7 +11131,7 @@
       <c r="W392" s="1"/>
       <c r="X392" s="1"/>
     </row>
-    <row r="393" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11152,7 +11157,7 @@
       <c r="W393" s="1"/>
       <c r="X393" s="1"/>
     </row>
-    <row r="394" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11178,7 +11183,7 @@
       <c r="W394" s="1"/>
       <c r="X394" s="1"/>
     </row>
-    <row r="395" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11204,7 +11209,7 @@
       <c r="W395" s="1"/>
       <c r="X395" s="1"/>
     </row>
-    <row r="396" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11230,7 +11235,7 @@
       <c r="W396" s="1"/>
       <c r="X396" s="1"/>
     </row>
-    <row r="397" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -11256,7 +11261,7 @@
       <c r="W397" s="1"/>
       <c r="X397" s="1"/>
     </row>
-    <row r="398" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -11282,7 +11287,7 @@
       <c r="W398" s="1"/>
       <c r="X398" s="1"/>
     </row>
-    <row r="399" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -11308,7 +11313,7 @@
       <c r="W399" s="1"/>
       <c r="X399" s="1"/>
     </row>
-    <row r="400" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -11334,7 +11339,7 @@
       <c r="W400" s="1"/>
       <c r="X400" s="1"/>
     </row>
-    <row r="401" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -11360,7 +11365,7 @@
       <c r="W401" s="1"/>
       <c r="X401" s="1"/>
     </row>
-    <row r="402" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -11386,7 +11391,7 @@
       <c r="W402" s="1"/>
       <c r="X402" s="1"/>
     </row>
-    <row r="403" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -11412,7 +11417,7 @@
       <c r="W403" s="1"/>
       <c r="X403" s="1"/>
     </row>
-    <row r="404" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -11438,7 +11443,7 @@
       <c r="W404" s="1"/>
       <c r="X404" s="1"/>
     </row>
-    <row r="405" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -11464,7 +11469,7 @@
       <c r="W405" s="1"/>
       <c r="X405" s="1"/>
     </row>
-    <row r="406" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -11490,7 +11495,7 @@
       <c r="W406" s="1"/>
       <c r="X406" s="1"/>
     </row>
-    <row r="407" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -11516,7 +11521,7 @@
       <c r="W407" s="1"/>
       <c r="X407" s="1"/>
     </row>
-    <row r="408" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -11542,7 +11547,7 @@
       <c r="W408" s="1"/>
       <c r="X408" s="1"/>
     </row>
-    <row r="409" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -11568,7 +11573,7 @@
       <c r="W409" s="1"/>
       <c r="X409" s="1"/>
     </row>
-    <row r="410" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11594,7 +11599,7 @@
       <c r="W410" s="1"/>
       <c r="X410" s="1"/>
     </row>
-    <row r="411" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11620,7 +11625,7 @@
       <c r="W411" s="1"/>
       <c r="X411" s="1"/>
     </row>
-    <row r="412" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11646,7 +11651,7 @@
       <c r="W412" s="1"/>
       <c r="X412" s="1"/>
     </row>
-    <row r="413" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -11672,7 +11677,7 @@
       <c r="W413" s="1"/>
       <c r="X413" s="1"/>
     </row>
-    <row r="414" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -11698,7 +11703,7 @@
       <c r="W414" s="1"/>
       <c r="X414" s="1"/>
     </row>
-    <row r="415" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -11724,7 +11729,7 @@
       <c r="W415" s="1"/>
       <c r="X415" s="1"/>
     </row>
-    <row r="416" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -11750,7 +11755,7 @@
       <c r="W416" s="1"/>
       <c r="X416" s="1"/>
     </row>
-    <row r="417" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -11776,7 +11781,7 @@
       <c r="W417" s="1"/>
       <c r="X417" s="1"/>
     </row>
-    <row r="418" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -11802,7 +11807,7 @@
       <c r="W418" s="1"/>
       <c r="X418" s="1"/>
     </row>
-    <row r="419" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -11828,7 +11833,7 @@
       <c r="W419" s="1"/>
       <c r="X419" s="1"/>
     </row>
-    <row r="420" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -11854,7 +11859,7 @@
       <c r="W420" s="1"/>
       <c r="X420" s="1"/>
     </row>
-    <row r="421" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -11880,7 +11885,7 @@
       <c r="W421" s="1"/>
       <c r="X421" s="1"/>
     </row>
-    <row r="422" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -11906,7 +11911,7 @@
       <c r="W422" s="1"/>
       <c r="X422" s="1"/>
     </row>
-    <row r="423" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -11932,7 +11937,7 @@
       <c r="W423" s="1"/>
       <c r="X423" s="1"/>
     </row>
-    <row r="424" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -11958,7 +11963,7 @@
       <c r="W424" s="1"/>
       <c r="X424" s="1"/>
     </row>
-    <row r="425" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -11984,7 +11989,7 @@
       <c r="W425" s="1"/>
       <c r="X425" s="1"/>
     </row>
-    <row r="426" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12010,7 +12015,7 @@
       <c r="W426" s="1"/>
       <c r="X426" s="1"/>
     </row>
-    <row r="427" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12036,7 +12041,7 @@
       <c r="W427" s="1"/>
       <c r="X427" s="1"/>
     </row>
-    <row r="428" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12062,7 +12067,7 @@
       <c r="W428" s="1"/>
       <c r="X428" s="1"/>
     </row>
-    <row r="429" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12088,7 +12093,7 @@
       <c r="W429" s="1"/>
       <c r="X429" s="1"/>
     </row>
-    <row r="430" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12114,7 +12119,7 @@
       <c r="W430" s="1"/>
       <c r="X430" s="1"/>
     </row>
-    <row r="431" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12140,7 +12145,7 @@
       <c r="W431" s="1"/>
       <c r="X431" s="1"/>
     </row>
-    <row r="432" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12166,7 +12171,7 @@
       <c r="W432" s="1"/>
       <c r="X432" s="1"/>
     </row>
-    <row r="433" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12192,7 +12197,7 @@
       <c r="W433" s="1"/>
       <c r="X433" s="1"/>
     </row>
-    <row r="434" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12218,7 +12223,7 @@
       <c r="W434" s="1"/>
       <c r="X434" s="1"/>
     </row>
-    <row r="435" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12244,7 +12249,7 @@
       <c r="W435" s="1"/>
       <c r="X435" s="1"/>
     </row>
-    <row r="436" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12270,7 +12275,7 @@
       <c r="W436" s="1"/>
       <c r="X436" s="1"/>
     </row>
-    <row r="437" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12296,7 +12301,7 @@
       <c r="W437" s="1"/>
       <c r="X437" s="1"/>
     </row>
-    <row r="438" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12322,7 +12327,7 @@
       <c r="W438" s="1"/>
       <c r="X438" s="1"/>
     </row>
-    <row r="439" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12348,7 +12353,7 @@
       <c r="W439" s="1"/>
       <c r="X439" s="1"/>
     </row>
-    <row r="440" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12374,7 +12379,7 @@
       <c r="W440" s="1"/>
       <c r="X440" s="1"/>
     </row>
-    <row r="441" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12400,7 +12405,7 @@
       <c r="W441" s="1"/>
       <c r="X441" s="1"/>
     </row>
-    <row r="442" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -12426,7 +12431,7 @@
       <c r="W442" s="1"/>
       <c r="X442" s="1"/>
     </row>
-    <row r="443" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -12452,7 +12457,7 @@
       <c r="W443" s="1"/>
       <c r="X443" s="1"/>
     </row>
-    <row r="444" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -12478,7 +12483,7 @@
       <c r="W444" s="1"/>
       <c r="X444" s="1"/>
     </row>
-    <row r="445" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -12504,7 +12509,7 @@
       <c r="W445" s="1"/>
       <c r="X445" s="1"/>
     </row>
-    <row r="446" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -12530,7 +12535,7 @@
       <c r="W446" s="1"/>
       <c r="X446" s="1"/>
     </row>
-    <row r="447" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -12556,7 +12561,7 @@
       <c r="W447" s="1"/>
       <c r="X447" s="1"/>
     </row>
-    <row r="448" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -12582,7 +12587,7 @@
       <c r="W448" s="1"/>
       <c r="X448" s="1"/>
     </row>
-    <row r="449" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -12608,7 +12613,7 @@
       <c r="W449" s="1"/>
       <c r="X449" s="1"/>
     </row>
-    <row r="450" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -12634,7 +12639,7 @@
       <c r="W450" s="1"/>
       <c r="X450" s="1"/>
     </row>
-    <row r="451" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -12660,7 +12665,7 @@
       <c r="W451" s="1"/>
       <c r="X451" s="1"/>
     </row>
-    <row r="452" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -12686,7 +12691,7 @@
       <c r="W452" s="1"/>
       <c r="X452" s="1"/>
     </row>
-    <row r="453" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -12712,7 +12717,7 @@
       <c r="W453" s="1"/>
       <c r="X453" s="1"/>
     </row>
-    <row r="454" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -12738,7 +12743,7 @@
       <c r="W454" s="1"/>
       <c r="X454" s="1"/>
     </row>
-    <row r="455" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -12764,7 +12769,7 @@
       <c r="W455" s="1"/>
       <c r="X455" s="1"/>
     </row>
-    <row r="456" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -12790,7 +12795,7 @@
       <c r="W456" s="1"/>
       <c r="X456" s="1"/>
     </row>
-    <row r="457" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -12816,7 +12821,7 @@
       <c r="W457" s="1"/>
       <c r="X457" s="1"/>
     </row>
-    <row r="458" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -12842,7 +12847,7 @@
       <c r="W458" s="1"/>
       <c r="X458" s="1"/>
     </row>
-    <row r="459" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -12868,7 +12873,7 @@
       <c r="W459" s="1"/>
       <c r="X459" s="1"/>
     </row>
-    <row r="460" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -12894,7 +12899,7 @@
       <c r="W460" s="1"/>
       <c r="X460" s="1"/>
     </row>
-    <row r="461" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -12920,7 +12925,7 @@
       <c r="W461" s="1"/>
       <c r="X461" s="1"/>
     </row>
-    <row r="462" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -12946,7 +12951,7 @@
       <c r="W462" s="1"/>
       <c r="X462" s="1"/>
     </row>
-    <row r="463" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -12972,7 +12977,7 @@
       <c r="W463" s="1"/>
       <c r="X463" s="1"/>
     </row>
-    <row r="464" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -12998,7 +13003,7 @@
       <c r="W464" s="1"/>
       <c r="X464" s="1"/>
     </row>
-    <row r="465" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13024,7 +13029,7 @@
       <c r="W465" s="1"/>
       <c r="X465" s="1"/>
     </row>
-    <row r="466" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13050,7 +13055,7 @@
       <c r="W466" s="1"/>
       <c r="X466" s="1"/>
     </row>
-    <row r="467" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13076,7 +13081,7 @@
       <c r="W467" s="1"/>
       <c r="X467" s="1"/>
     </row>
-    <row r="468" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13102,7 +13107,7 @@
       <c r="W468" s="1"/>
       <c r="X468" s="1"/>
     </row>
-    <row r="469" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13128,7 +13133,7 @@
       <c r="W469" s="1"/>
       <c r="X469" s="1"/>
     </row>
-    <row r="470" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13154,7 +13159,7 @@
       <c r="W470" s="1"/>
       <c r="X470" s="1"/>
     </row>
-    <row r="471" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13180,7 +13185,7 @@
       <c r="W471" s="1"/>
       <c r="X471" s="1"/>
     </row>
-    <row r="472" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13206,7 +13211,7 @@
       <c r="W472" s="1"/>
       <c r="X472" s="1"/>
     </row>
-    <row r="473" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13232,7 +13237,7 @@
       <c r="W473" s="1"/>
       <c r="X473" s="1"/>
     </row>
-    <row r="474" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13258,7 +13263,7 @@
       <c r="W474" s="1"/>
       <c r="X474" s="1"/>
     </row>
-    <row r="475" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13284,7 +13289,7 @@
       <c r="W475" s="1"/>
       <c r="X475" s="1"/>
     </row>
-    <row r="476" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13310,7 +13315,7 @@
       <c r="W476" s="1"/>
       <c r="X476" s="1"/>
     </row>
-    <row r="477" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13336,7 +13341,7 @@
       <c r="W477" s="1"/>
       <c r="X477" s="1"/>
     </row>
-    <row r="478" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13362,7 +13367,7 @@
       <c r="W478" s="1"/>
       <c r="X478" s="1"/>
     </row>
-    <row r="479" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13388,7 +13393,7 @@
       <c r="W479" s="1"/>
       <c r="X479" s="1"/>
     </row>
-    <row r="480" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13414,7 +13419,7 @@
       <c r="W480" s="1"/>
       <c r="X480" s="1"/>
     </row>
-    <row r="481" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13440,7 +13445,7 @@
       <c r="W481" s="1"/>
       <c r="X481" s="1"/>
     </row>
-    <row r="482" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13466,7 +13471,7 @@
       <c r="W482" s="1"/>
       <c r="X482" s="1"/>
     </row>
-    <row r="483" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13492,7 +13497,7 @@
       <c r="W483" s="1"/>
       <c r="X483" s="1"/>
     </row>
-    <row r="484" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13518,7 +13523,7 @@
       <c r="W484" s="1"/>
       <c r="X484" s="1"/>
     </row>
-    <row r="485" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -13544,7 +13549,7 @@
       <c r="W485" s="1"/>
       <c r="X485" s="1"/>
     </row>
-    <row r="486" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -13570,7 +13575,7 @@
       <c r="W486" s="1"/>
       <c r="X486" s="1"/>
     </row>
-    <row r="487" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -13596,7 +13601,7 @@
       <c r="W487" s="1"/>
       <c r="X487" s="1"/>
     </row>
-    <row r="488" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -13622,7 +13627,7 @@
       <c r="W488" s="1"/>
       <c r="X488" s="1"/>
     </row>
-    <row r="489" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -13648,7 +13653,7 @@
       <c r="W489" s="1"/>
       <c r="X489" s="1"/>
     </row>
-    <row r="490" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -13674,7 +13679,7 @@
       <c r="W490" s="1"/>
       <c r="X490" s="1"/>
     </row>
-    <row r="491" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -13700,7 +13705,7 @@
       <c r="W491" s="1"/>
       <c r="X491" s="1"/>
     </row>
-    <row r="492" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -13726,7 +13731,7 @@
       <c r="W492" s="1"/>
       <c r="X492" s="1"/>
     </row>
-    <row r="493" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -13752,7 +13757,7 @@
       <c r="W493" s="1"/>
       <c r="X493" s="1"/>
     </row>
-    <row r="494" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -13778,7 +13783,7 @@
       <c r="W494" s="1"/>
       <c r="X494" s="1"/>
     </row>
-    <row r="495" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -13804,7 +13809,7 @@
       <c r="W495" s="1"/>
       <c r="X495" s="1"/>
     </row>
-    <row r="496" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -13830,7 +13835,7 @@
       <c r="W496" s="1"/>
       <c r="X496" s="1"/>
     </row>
-    <row r="497" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -13856,7 +13861,7 @@
       <c r="W497" s="1"/>
       <c r="X497" s="1"/>
     </row>
-    <row r="498" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -13882,7 +13887,7 @@
       <c r="W498" s="1"/>
       <c r="X498" s="1"/>
     </row>
-    <row r="499" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -13908,7 +13913,7 @@
       <c r="W499" s="1"/>
       <c r="X499" s="1"/>
     </row>
-    <row r="500" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -13934,7 +13939,7 @@
       <c r="W500" s="1"/>
       <c r="X500" s="1"/>
     </row>
-    <row r="501" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -13960,7 +13965,7 @@
       <c r="W501" s="1"/>
       <c r="X501" s="1"/>
     </row>
-    <row r="502" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -13986,7 +13991,7 @@
       <c r="W502" s="1"/>
       <c r="X502" s="1"/>
     </row>
-    <row r="503" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14012,7 +14017,7 @@
       <c r="W503" s="1"/>
       <c r="X503" s="1"/>
     </row>
-    <row r="504" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -14038,7 +14043,7 @@
       <c r="W504" s="1"/>
       <c r="X504" s="1"/>
     </row>
-    <row r="505" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -14064,7 +14069,7 @@
       <c r="W505" s="1"/>
       <c r="X505" s="1"/>
     </row>
-    <row r="506" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -14090,7 +14095,7 @@
       <c r="W506" s="1"/>
       <c r="X506" s="1"/>
     </row>
-    <row r="507" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -14116,7 +14121,7 @@
       <c r="W507" s="1"/>
       <c r="X507" s="1"/>
     </row>
-    <row r="508" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -14142,7 +14147,7 @@
       <c r="W508" s="1"/>
       <c r="X508" s="1"/>
     </row>
-    <row r="509" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -14168,7 +14173,7 @@
       <c r="W509" s="1"/>
       <c r="X509" s="1"/>
     </row>
-    <row r="510" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -14194,7 +14199,7 @@
       <c r="W510" s="1"/>
       <c r="X510" s="1"/>
     </row>
-    <row r="511" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -14220,7 +14225,7 @@
       <c r="W511" s="1"/>
       <c r="X511" s="1"/>
     </row>
-    <row r="512" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -14246,7 +14251,7 @@
       <c r="W512" s="1"/>
       <c r="X512" s="1"/>
     </row>
-    <row r="513" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -14272,7 +14277,7 @@
       <c r="W513" s="1"/>
       <c r="X513" s="1"/>
     </row>
-    <row r="514" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -14298,7 +14303,7 @@
       <c r="W514" s="1"/>
       <c r="X514" s="1"/>
     </row>
-    <row r="515" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -14324,7 +14329,7 @@
       <c r="W515" s="1"/>
       <c r="X515" s="1"/>
     </row>
-    <row r="516" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -14350,7 +14355,7 @@
       <c r="W516" s="1"/>
       <c r="X516" s="1"/>
     </row>
-    <row r="517" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -14376,7 +14381,7 @@
       <c r="W517" s="1"/>
       <c r="X517" s="1"/>
     </row>
-    <row r="518" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -14402,7 +14407,7 @@
       <c r="W518" s="1"/>
       <c r="X518" s="1"/>
     </row>
-    <row r="519" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -14428,7 +14433,7 @@
       <c r="W519" s="1"/>
       <c r="X519" s="1"/>
     </row>
-    <row r="520" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -14454,7 +14459,7 @@
       <c r="W520" s="1"/>
       <c r="X520" s="1"/>
     </row>
-    <row r="521" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -14480,7 +14485,7 @@
       <c r="W521" s="1"/>
       <c r="X521" s="1"/>
     </row>
-    <row r="522" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -14506,7 +14511,7 @@
       <c r="W522" s="1"/>
       <c r="X522" s="1"/>
     </row>
-    <row r="523" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -14532,7 +14537,7 @@
       <c r="W523" s="1"/>
       <c r="X523" s="1"/>
     </row>
-    <row r="524" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -14558,7 +14563,7 @@
       <c r="W524" s="1"/>
       <c r="X524" s="1"/>
     </row>
-    <row r="525" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -14584,7 +14589,7 @@
       <c r="W525" s="1"/>
       <c r="X525" s="1"/>
     </row>
-    <row r="526" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -14610,7 +14615,7 @@
       <c r="W526" s="1"/>
       <c r="X526" s="1"/>
     </row>
-    <row r="527" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -14636,7 +14641,7 @@
       <c r="W527" s="1"/>
       <c r="X527" s="1"/>
     </row>
-    <row r="528" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -14662,7 +14667,7 @@
       <c r="W528" s="1"/>
       <c r="X528" s="1"/>
     </row>
-    <row r="529" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -14688,7 +14693,7 @@
       <c r="W529" s="1"/>
       <c r="X529" s="1"/>
     </row>
-    <row r="530" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -14714,7 +14719,7 @@
       <c r="W530" s="1"/>
       <c r="X530" s="1"/>
     </row>
-    <row r="531" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -14740,7 +14745,7 @@
       <c r="W531" s="1"/>
       <c r="X531" s="1"/>
     </row>
-    <row r="532" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -14766,7 +14771,7 @@
       <c r="W532" s="1"/>
       <c r="X532" s="1"/>
     </row>
-    <row r="533" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -14792,7 +14797,7 @@
       <c r="W533" s="1"/>
       <c r="X533" s="1"/>
     </row>
-    <row r="534" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -14818,7 +14823,7 @@
       <c r="W534" s="1"/>
       <c r="X534" s="1"/>
     </row>
-    <row r="535" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -14844,7 +14849,7 @@
       <c r="W535" s="1"/>
       <c r="X535" s="1"/>
     </row>
-    <row r="536" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -14870,7 +14875,7 @@
       <c r="W536" s="1"/>
       <c r="X536" s="1"/>
     </row>
-    <row r="537" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -14896,7 +14901,7 @@
       <c r="W537" s="1"/>
       <c r="X537" s="1"/>
     </row>
-    <row r="538" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -14922,7 +14927,7 @@
       <c r="W538" s="1"/>
       <c r="X538" s="1"/>
     </row>
-    <row r="539" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -14948,7 +14953,7 @@
       <c r="W539" s="1"/>
       <c r="X539" s="1"/>
     </row>
-    <row r="540" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -14974,7 +14979,7 @@
       <c r="W540" s="1"/>
       <c r="X540" s="1"/>
     </row>
-    <row r="541" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -15000,7 +15005,7 @@
       <c r="W541" s="1"/>
       <c r="X541" s="1"/>
     </row>
-    <row r="542" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -15026,7 +15031,7 @@
       <c r="W542" s="1"/>
       <c r="X542" s="1"/>
     </row>
-    <row r="543" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -15052,7 +15057,7 @@
       <c r="W543" s="1"/>
       <c r="X543" s="1"/>
     </row>
-    <row r="544" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -15078,7 +15083,7 @@
       <c r="W544" s="1"/>
       <c r="X544" s="1"/>
     </row>
-    <row r="545" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -15104,7 +15109,7 @@
       <c r="W545" s="1"/>
       <c r="X545" s="1"/>
     </row>
-    <row r="546" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -15130,7 +15135,7 @@
       <c r="W546" s="1"/>
       <c r="X546" s="1"/>
     </row>
-    <row r="547" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -15156,7 +15161,7 @@
       <c r="W547" s="1"/>
       <c r="X547" s="1"/>
     </row>
-    <row r="548" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -15182,7 +15187,7 @@
       <c r="W548" s="1"/>
       <c r="X548" s="1"/>
     </row>
-    <row r="549" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -15208,7 +15213,7 @@
       <c r="W549" s="1"/>
       <c r="X549" s="1"/>
     </row>
-    <row r="550" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -15234,7 +15239,7 @@
       <c r="W550" s="1"/>
       <c r="X550" s="1"/>
     </row>
-    <row r="551" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -15260,7 +15265,7 @@
       <c r="W551" s="1"/>
       <c r="X551" s="1"/>
     </row>
-    <row r="552" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -15286,7 +15291,7 @@
       <c r="W552" s="1"/>
       <c r="X552" s="1"/>
     </row>
-    <row r="553" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -15312,7 +15317,7 @@
       <c r="W553" s="1"/>
       <c r="X553" s="1"/>
     </row>
-    <row r="554" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -15338,7 +15343,7 @@
       <c r="W554" s="1"/>
       <c r="X554" s="1"/>
     </row>
-    <row r="555" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -15364,7 +15369,7 @@
       <c r="W555" s="1"/>
       <c r="X555" s="1"/>
     </row>
-    <row r="556" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -15390,7 +15395,7 @@
       <c r="W556" s="1"/>
       <c r="X556" s="1"/>
     </row>
-    <row r="557" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -15416,7 +15421,7 @@
       <c r="W557" s="1"/>
       <c r="X557" s="1"/>
     </row>
-    <row r="558" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -15442,7 +15447,7 @@
       <c r="W558" s="1"/>
       <c r="X558" s="1"/>
     </row>
-    <row r="559" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -15468,7 +15473,7 @@
       <c r="W559" s="1"/>
       <c r="X559" s="1"/>
     </row>
-    <row r="560" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -15494,7 +15499,7 @@
       <c r="W560" s="1"/>
       <c r="X560" s="1"/>
     </row>
-    <row r="561" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -15520,7 +15525,7 @@
       <c r="W561" s="1"/>
       <c r="X561" s="1"/>
     </row>
-    <row r="562" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -15546,7 +15551,7 @@
       <c r="W562" s="1"/>
       <c r="X562" s="1"/>
     </row>
-    <row r="563" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -15572,7 +15577,7 @@
       <c r="W563" s="1"/>
       <c r="X563" s="1"/>
     </row>
-    <row r="564" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -15598,7 +15603,7 @@
       <c r="W564" s="1"/>
       <c r="X564" s="1"/>
     </row>
-    <row r="565" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -15624,7 +15629,7 @@
       <c r="W565" s="1"/>
       <c r="X565" s="1"/>
     </row>
-    <row r="566" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -15650,7 +15655,7 @@
       <c r="W566" s="1"/>
       <c r="X566" s="1"/>
     </row>
-    <row r="567" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -15676,7 +15681,7 @@
       <c r="W567" s="1"/>
       <c r="X567" s="1"/>
     </row>
-    <row r="568" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -15702,7 +15707,7 @@
       <c r="W568" s="1"/>
       <c r="X568" s="1"/>
     </row>
-    <row r="569" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -15728,7 +15733,7 @@
       <c r="W569" s="1"/>
       <c r="X569" s="1"/>
     </row>
-    <row r="570" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -15754,7 +15759,7 @@
       <c r="W570" s="1"/>
       <c r="X570" s="1"/>
     </row>
-    <row r="571" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -15780,7 +15785,7 @@
       <c r="W571" s="1"/>
       <c r="X571" s="1"/>
     </row>
-    <row r="572" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -15806,7 +15811,7 @@
       <c r="W572" s="1"/>
       <c r="X572" s="1"/>
     </row>
-    <row r="573" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -15832,7 +15837,7 @@
       <c r="W573" s="1"/>
       <c r="X573" s="1"/>
     </row>
-    <row r="574" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -15858,7 +15863,7 @@
       <c r="W574" s="1"/>
       <c r="X574" s="1"/>
     </row>
-    <row r="575" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -15884,7 +15889,7 @@
       <c r="W575" s="1"/>
       <c r="X575" s="1"/>
     </row>
-    <row r="576" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -15910,7 +15915,7 @@
       <c r="W576" s="1"/>
       <c r="X576" s="1"/>
     </row>
-    <row r="577" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -15936,7 +15941,7 @@
       <c r="W577" s="1"/>
       <c r="X577" s="1"/>
     </row>
-    <row r="578" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -15962,7 +15967,7 @@
       <c r="W578" s="1"/>
       <c r="X578" s="1"/>
     </row>
-    <row r="579" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -15988,7 +15993,7 @@
       <c r="W579" s="1"/>
       <c r="X579" s="1"/>
     </row>
-    <row r="580" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -16014,7 +16019,7 @@
       <c r="W580" s="1"/>
       <c r="X580" s="1"/>
     </row>
-    <row r="581" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -16040,7 +16045,7 @@
       <c r="W581" s="1"/>
       <c r="X581" s="1"/>
     </row>
-    <row r="582" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -16066,7 +16071,7 @@
       <c r="W582" s="1"/>
       <c r="X582" s="1"/>
     </row>
-    <row r="583" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -16092,7 +16097,7 @@
       <c r="W583" s="1"/>
       <c r="X583" s="1"/>
     </row>
-    <row r="584" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -16118,7 +16123,7 @@
       <c r="W584" s="1"/>
       <c r="X584" s="1"/>
     </row>
-    <row r="585" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -16144,7 +16149,7 @@
       <c r="W585" s="1"/>
       <c r="X585" s="1"/>
     </row>
-    <row r="586" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -16170,7 +16175,7 @@
       <c r="W586" s="1"/>
       <c r="X586" s="1"/>
     </row>
-    <row r="587" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -16196,7 +16201,7 @@
       <c r="W587" s="1"/>
       <c r="X587" s="1"/>
     </row>
-    <row r="588" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -16222,7 +16227,7 @@
       <c r="W588" s="1"/>
       <c r="X588" s="1"/>
     </row>
-    <row r="589" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -16248,7 +16253,7 @@
       <c r="W589" s="1"/>
       <c r="X589" s="1"/>
     </row>
-    <row r="590" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -16274,7 +16279,7 @@
       <c r="W590" s="1"/>
       <c r="X590" s="1"/>
     </row>
-    <row r="591" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -16300,7 +16305,7 @@
       <c r="W591" s="1"/>
       <c r="X591" s="1"/>
     </row>
-    <row r="592" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -16326,7 +16331,7 @@
       <c r="W592" s="1"/>
       <c r="X592" s="1"/>
     </row>
-    <row r="593" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -16352,7 +16357,7 @@
       <c r="W593" s="1"/>
       <c r="X593" s="1"/>
     </row>
-    <row r="594" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -16378,7 +16383,7 @@
       <c r="W594" s="1"/>
       <c r="X594" s="1"/>
     </row>
-    <row r="595" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -16404,7 +16409,7 @@
       <c r="W595" s="1"/>
       <c r="X595" s="1"/>
     </row>
-    <row r="596" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -16430,7 +16435,7 @@
       <c r="W596" s="1"/>
       <c r="X596" s="1"/>
     </row>
-    <row r="597" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -16456,7 +16461,7 @@
       <c r="W597" s="1"/>
       <c r="X597" s="1"/>
     </row>
-    <row r="598" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -16482,7 +16487,7 @@
       <c r="W598" s="1"/>
       <c r="X598" s="1"/>
     </row>
-    <row r="599" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -16508,7 +16513,7 @@
       <c r="W599" s="1"/>
       <c r="X599" s="1"/>
     </row>
-    <row r="600" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -16534,7 +16539,7 @@
       <c r="W600" s="1"/>
       <c r="X600" s="1"/>
     </row>
-    <row r="601" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -16560,7 +16565,7 @@
       <c r="W601" s="1"/>
       <c r="X601" s="1"/>
     </row>
-    <row r="602" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -16586,7 +16591,7 @@
       <c r="W602" s="1"/>
       <c r="X602" s="1"/>
     </row>
-    <row r="603" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -16612,7 +16617,7 @@
       <c r="W603" s="1"/>
       <c r="X603" s="1"/>
     </row>
-    <row r="604" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -16638,7 +16643,7 @@
       <c r="W604" s="1"/>
       <c r="X604" s="1"/>
     </row>
-    <row r="605" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -16664,7 +16669,7 @@
       <c r="W605" s="1"/>
       <c r="X605" s="1"/>
     </row>
-    <row r="606" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -16690,7 +16695,7 @@
       <c r="W606" s="1"/>
       <c r="X606" s="1"/>
     </row>
-    <row r="607" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -16716,7 +16721,7 @@
       <c r="W607" s="1"/>
       <c r="X607" s="1"/>
     </row>
-    <row r="608" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -16742,7 +16747,7 @@
       <c r="W608" s="1"/>
       <c r="X608" s="1"/>
     </row>
-    <row r="609" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -16768,7 +16773,7 @@
       <c r="W609" s="1"/>
       <c r="X609" s="1"/>
     </row>
-    <row r="610" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -16794,7 +16799,7 @@
       <c r="W610" s="1"/>
       <c r="X610" s="1"/>
     </row>
-    <row r="611" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -16820,7 +16825,7 @@
       <c r="W611" s="1"/>
       <c r="X611" s="1"/>
     </row>
-    <row r="612" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -16846,7 +16851,7 @@
       <c r="W612" s="1"/>
       <c r="X612" s="1"/>
     </row>
-    <row r="613" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -16872,7 +16877,7 @@
       <c r="W613" s="1"/>
       <c r="X613" s="1"/>
     </row>
-    <row r="614" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -16898,7 +16903,7 @@
       <c r="W614" s="1"/>
       <c r="X614" s="1"/>
     </row>
-    <row r="615" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -16924,7 +16929,7 @@
       <c r="W615" s="1"/>
       <c r="X615" s="1"/>
     </row>
-    <row r="616" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -16950,7 +16955,7 @@
       <c r="W616" s="1"/>
       <c r="X616" s="1"/>
     </row>
-    <row r="617" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -16976,7 +16981,7 @@
       <c r="W617" s="1"/>
       <c r="X617" s="1"/>
     </row>
-    <row r="618" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -17002,7 +17007,7 @@
       <c r="W618" s="1"/>
       <c r="X618" s="1"/>
     </row>
-    <row r="619" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -17028,7 +17033,7 @@
       <c r="W619" s="1"/>
       <c r="X619" s="1"/>
     </row>
-    <row r="620" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -17054,7 +17059,7 @@
       <c r="W620" s="1"/>
       <c r="X620" s="1"/>
     </row>
-    <row r="621" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -17080,7 +17085,7 @@
       <c r="W621" s="1"/>
       <c r="X621" s="1"/>
     </row>
-    <row r="622" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -17106,7 +17111,7 @@
       <c r="W622" s="1"/>
       <c r="X622" s="1"/>
     </row>
-    <row r="623" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -17132,7 +17137,7 @@
       <c r="W623" s="1"/>
       <c r="X623" s="1"/>
     </row>
-    <row r="624" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -17158,7 +17163,7 @@
       <c r="W624" s="1"/>
       <c r="X624" s="1"/>
     </row>
-    <row r="625" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -17184,7 +17189,7 @@
       <c r="W625" s="1"/>
       <c r="X625" s="1"/>
     </row>
-    <row r="626" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -17210,7 +17215,7 @@
       <c r="W626" s="1"/>
       <c r="X626" s="1"/>
     </row>
-    <row r="627" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -17236,7 +17241,7 @@
       <c r="W627" s="1"/>
       <c r="X627" s="1"/>
     </row>
-    <row r="628" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -17262,7 +17267,7 @@
       <c r="W628" s="1"/>
       <c r="X628" s="1"/>
     </row>
-    <row r="629" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -17288,7 +17293,7 @@
       <c r="W629" s="1"/>
       <c r="X629" s="1"/>
     </row>
-    <row r="630" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -17314,7 +17319,7 @@
       <c r="W630" s="1"/>
       <c r="X630" s="1"/>
     </row>
-    <row r="631" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -17340,7 +17345,7 @@
       <c r="W631" s="1"/>
       <c r="X631" s="1"/>
     </row>
-    <row r="632" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -17366,7 +17371,7 @@
       <c r="W632" s="1"/>
       <c r="X632" s="1"/>
     </row>
-    <row r="633" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -17392,7 +17397,7 @@
       <c r="W633" s="1"/>
       <c r="X633" s="1"/>
     </row>
-    <row r="634" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -17418,7 +17423,7 @@
       <c r="W634" s="1"/>
       <c r="X634" s="1"/>
     </row>
-    <row r="635" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -17444,7 +17449,7 @@
       <c r="W635" s="1"/>
       <c r="X635" s="1"/>
     </row>
-    <row r="636" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -17470,7 +17475,7 @@
       <c r="W636" s="1"/>
       <c r="X636" s="1"/>
     </row>
-    <row r="637" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -17496,7 +17501,7 @@
       <c r="W637" s="1"/>
       <c r="X637" s="1"/>
     </row>
-    <row r="638" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -17522,7 +17527,7 @@
       <c r="W638" s="1"/>
       <c r="X638" s="1"/>
     </row>
-    <row r="639" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -17548,7 +17553,7 @@
       <c r="W639" s="1"/>
       <c r="X639" s="1"/>
     </row>
-    <row r="640" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -17574,7 +17579,7 @@
       <c r="W640" s="1"/>
       <c r="X640" s="1"/>
     </row>
-    <row r="641" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -17600,7 +17605,7 @@
       <c r="W641" s="1"/>
       <c r="X641" s="1"/>
     </row>
-    <row r="642" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -17626,7 +17631,7 @@
       <c r="W642" s="1"/>
       <c r="X642" s="1"/>
     </row>
-    <row r="643" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -17652,7 +17657,7 @@
       <c r="W643" s="1"/>
       <c r="X643" s="1"/>
     </row>
-    <row r="644" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -17678,7 +17683,7 @@
       <c r="W644" s="1"/>
       <c r="X644" s="1"/>
     </row>
-    <row r="645" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -17704,7 +17709,7 @@
       <c r="W645" s="1"/>
       <c r="X645" s="1"/>
     </row>
-    <row r="646" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -17730,7 +17735,7 @@
       <c r="W646" s="1"/>
       <c r="X646" s="1"/>
     </row>
-    <row r="647" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -17756,7 +17761,7 @@
       <c r="W647" s="1"/>
       <c r="X647" s="1"/>
     </row>
-    <row r="648" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -17782,7 +17787,7 @@
       <c r="W648" s="1"/>
       <c r="X648" s="1"/>
     </row>
-    <row r="649" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -17808,7 +17813,7 @@
       <c r="W649" s="1"/>
       <c r="X649" s="1"/>
     </row>
-    <row r="650" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -17834,7 +17839,7 @@
       <c r="W650" s="1"/>
       <c r="X650" s="1"/>
     </row>
-    <row r="651" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -17860,7 +17865,7 @@
       <c r="W651" s="1"/>
       <c r="X651" s="1"/>
     </row>
-    <row r="652" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -17886,7 +17891,7 @@
       <c r="W652" s="1"/>
       <c r="X652" s="1"/>
     </row>
-    <row r="653" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -17912,7 +17917,7 @@
       <c r="W653" s="1"/>
       <c r="X653" s="1"/>
     </row>
-    <row r="654" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -17938,7 +17943,7 @@
       <c r="W654" s="1"/>
       <c r="X654" s="1"/>
     </row>
-    <row r="655" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -17964,7 +17969,7 @@
       <c r="W655" s="1"/>
       <c r="X655" s="1"/>
     </row>
-    <row r="656" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -17990,7 +17995,7 @@
       <c r="W656" s="1"/>
       <c r="X656" s="1"/>
     </row>
-    <row r="657" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -18016,7 +18021,7 @@
       <c r="W657" s="1"/>
       <c r="X657" s="1"/>
     </row>
-    <row r="658" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -18042,7 +18047,7 @@
       <c r="W658" s="1"/>
       <c r="X658" s="1"/>
     </row>
-    <row r="659" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -18068,7 +18073,7 @@
       <c r="W659" s="1"/>
       <c r="X659" s="1"/>
     </row>
-    <row r="660" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -18094,7 +18099,7 @@
       <c r="W660" s="1"/>
       <c r="X660" s="1"/>
     </row>
-    <row r="661" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -18120,7 +18125,7 @@
       <c r="W661" s="1"/>
       <c r="X661" s="1"/>
     </row>
-    <row r="662" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -18146,7 +18151,7 @@
       <c r="W662" s="1"/>
       <c r="X662" s="1"/>
     </row>
-    <row r="663" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -18172,7 +18177,7 @@
       <c r="W663" s="1"/>
       <c r="X663" s="1"/>
     </row>
-    <row r="664" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -18198,7 +18203,7 @@
       <c r="W664" s="1"/>
       <c r="X664" s="1"/>
     </row>
-    <row r="665" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -18224,7 +18229,7 @@
       <c r="W665" s="1"/>
       <c r="X665" s="1"/>
     </row>
-    <row r="666" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -18250,7 +18255,7 @@
       <c r="W666" s="1"/>
       <c r="X666" s="1"/>
     </row>
-    <row r="667" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -18276,7 +18281,7 @@
       <c r="W667" s="1"/>
       <c r="X667" s="1"/>
     </row>
-    <row r="668" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -18302,7 +18307,7 @@
       <c r="W668" s="1"/>
       <c r="X668" s="1"/>
     </row>
-    <row r="669" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -18328,7 +18333,7 @@
       <c r="W669" s="1"/>
       <c r="X669" s="1"/>
     </row>
-    <row r="670" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -18354,7 +18359,7 @@
       <c r="W670" s="1"/>
       <c r="X670" s="1"/>
     </row>
-    <row r="671" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -18380,7 +18385,7 @@
       <c r="W671" s="1"/>
       <c r="X671" s="1"/>
     </row>
-    <row r="672" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -18406,7 +18411,7 @@
       <c r="W672" s="1"/>
       <c r="X672" s="1"/>
     </row>
-    <row r="673" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -18432,7 +18437,7 @@
       <c r="W673" s="1"/>
       <c r="X673" s="1"/>
     </row>
-    <row r="674" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -18458,7 +18463,7 @@
       <c r="W674" s="1"/>
       <c r="X674" s="1"/>
     </row>
-    <row r="675" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -18484,7 +18489,7 @@
       <c r="W675" s="1"/>
       <c r="X675" s="1"/>
     </row>
-    <row r="676" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -18510,7 +18515,7 @@
       <c r="W676" s="1"/>
       <c r="X676" s="1"/>
     </row>
-    <row r="677" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -18536,7 +18541,7 @@
       <c r="W677" s="1"/>
       <c r="X677" s="1"/>
     </row>
-    <row r="678" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -18562,7 +18567,7 @@
       <c r="W678" s="1"/>
       <c r="X678" s="1"/>
     </row>
-    <row r="679" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -18588,7 +18593,7 @@
       <c r="W679" s="1"/>
       <c r="X679" s="1"/>
     </row>
-    <row r="680" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -18614,7 +18619,7 @@
       <c r="W680" s="1"/>
       <c r="X680" s="1"/>
     </row>
-    <row r="681" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -18640,7 +18645,7 @@
       <c r="W681" s="1"/>
       <c r="X681" s="1"/>
     </row>
-    <row r="682" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -18666,7 +18671,7 @@
       <c r="W682" s="1"/>
       <c r="X682" s="1"/>
     </row>
-    <row r="683" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -18692,7 +18697,7 @@
       <c r="W683" s="1"/>
       <c r="X683" s="1"/>
     </row>
-    <row r="684" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -18718,7 +18723,7 @@
       <c r="W684" s="1"/>
       <c r="X684" s="1"/>
     </row>
-    <row r="685" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -18744,7 +18749,7 @@
       <c r="W685" s="1"/>
       <c r="X685" s="1"/>
     </row>
-    <row r="686" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -18770,7 +18775,7 @@
       <c r="W686" s="1"/>
       <c r="X686" s="1"/>
     </row>
-    <row r="687" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -18796,7 +18801,7 @@
       <c r="W687" s="1"/>
       <c r="X687" s="1"/>
     </row>
-    <row r="688" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -18822,7 +18827,7 @@
       <c r="W688" s="1"/>
       <c r="X688" s="1"/>
     </row>
-    <row r="689" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -18848,7 +18853,7 @@
       <c r="W689" s="1"/>
       <c r="X689" s="1"/>
     </row>
-    <row r="690" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -18874,7 +18879,7 @@
       <c r="W690" s="1"/>
       <c r="X690" s="1"/>
     </row>
-    <row r="691" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -18900,7 +18905,7 @@
       <c r="W691" s="1"/>
       <c r="X691" s="1"/>
     </row>
-    <row r="692" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -18926,7 +18931,7 @@
       <c r="W692" s="1"/>
       <c r="X692" s="1"/>
     </row>
-    <row r="693" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -18952,7 +18957,7 @@
       <c r="W693" s="1"/>
       <c r="X693" s="1"/>
     </row>
-    <row r="694" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -18978,7 +18983,7 @@
       <c r="W694" s="1"/>
       <c r="X694" s="1"/>
     </row>
-    <row r="695" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -19004,7 +19009,7 @@
       <c r="W695" s="1"/>
       <c r="X695" s="1"/>
     </row>
-    <row r="696" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -19030,7 +19035,7 @@
       <c r="W696" s="1"/>
       <c r="X696" s="1"/>
     </row>
-    <row r="697" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -19056,7 +19061,7 @@
       <c r="W697" s="1"/>
       <c r="X697" s="1"/>
     </row>
-    <row r="698" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -19082,7 +19087,7 @@
       <c r="W698" s="1"/>
       <c r="X698" s="1"/>
     </row>
-    <row r="699" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -19108,7 +19113,7 @@
       <c r="W699" s="1"/>
       <c r="X699" s="1"/>
     </row>
-    <row r="700" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -19134,7 +19139,7 @@
       <c r="W700" s="1"/>
       <c r="X700" s="1"/>
     </row>
-    <row r="701" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -19160,7 +19165,7 @@
       <c r="W701" s="1"/>
       <c r="X701" s="1"/>
     </row>
-    <row r="702" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -19186,7 +19191,7 @@
       <c r="W702" s="1"/>
       <c r="X702" s="1"/>
     </row>
-    <row r="703" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -19212,7 +19217,7 @@
       <c r="W703" s="1"/>
       <c r="X703" s="1"/>
     </row>
-    <row r="704" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -19238,7 +19243,7 @@
       <c r="W704" s="1"/>
       <c r="X704" s="1"/>
     </row>
-    <row r="705" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -19264,7 +19269,7 @@
       <c r="W705" s="1"/>
       <c r="X705" s="1"/>
     </row>
-    <row r="706" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -19290,7 +19295,7 @@
       <c r="W706" s="1"/>
       <c r="X706" s="1"/>
     </row>
-    <row r="707" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -19316,7 +19321,7 @@
       <c r="W707" s="1"/>
       <c r="X707" s="1"/>
     </row>
-    <row r="708" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -19342,7 +19347,7 @@
       <c r="W708" s="1"/>
       <c r="X708" s="1"/>
     </row>
-    <row r="709" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -19368,7 +19373,7 @@
       <c r="W709" s="1"/>
       <c r="X709" s="1"/>
     </row>
-    <row r="710" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -19394,7 +19399,7 @@
       <c r="W710" s="1"/>
       <c r="X710" s="1"/>
     </row>
-    <row r="711" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -19420,7 +19425,7 @@
       <c r="W711" s="1"/>
       <c r="X711" s="1"/>
     </row>
-    <row r="712" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -19446,7 +19451,7 @@
       <c r="W712" s="1"/>
       <c r="X712" s="1"/>
     </row>
-    <row r="713" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -19472,7 +19477,7 @@
       <c r="W713" s="1"/>
       <c r="X713" s="1"/>
     </row>
-    <row r="714" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -19498,7 +19503,7 @@
       <c r="W714" s="1"/>
       <c r="X714" s="1"/>
     </row>
-    <row r="715" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -19524,7 +19529,7 @@
       <c r="W715" s="1"/>
       <c r="X715" s="1"/>
     </row>
-    <row r="716" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -19550,7 +19555,7 @@
       <c r="W716" s="1"/>
       <c r="X716" s="1"/>
     </row>
-    <row r="717" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -19576,7 +19581,7 @@
       <c r="W717" s="1"/>
       <c r="X717" s="1"/>
     </row>
-    <row r="718" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -19602,7 +19607,7 @@
       <c r="W718" s="1"/>
       <c r="X718" s="1"/>
     </row>
-    <row r="719" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -19628,7 +19633,7 @@
       <c r="W719" s="1"/>
       <c r="X719" s="1"/>
     </row>
-    <row r="720" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -19654,7 +19659,7 @@
       <c r="W720" s="1"/>
       <c r="X720" s="1"/>
     </row>
-    <row r="721" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -19680,7 +19685,7 @@
       <c r="W721" s="1"/>
       <c r="X721" s="1"/>
     </row>
-    <row r="722" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -19706,7 +19711,7 @@
       <c r="W722" s="1"/>
       <c r="X722" s="1"/>
     </row>
-    <row r="723" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -19732,7 +19737,7 @@
       <c r="W723" s="1"/>
       <c r="X723" s="1"/>
     </row>
-    <row r="724" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -19758,7 +19763,7 @@
       <c r="W724" s="1"/>
       <c r="X724" s="1"/>
     </row>
-    <row r="725" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -19784,7 +19789,7 @@
       <c r="W725" s="1"/>
       <c r="X725" s="1"/>
     </row>
-    <row r="726" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -19810,7 +19815,7 @@
       <c r="W726" s="1"/>
       <c r="X726" s="1"/>
     </row>
-    <row r="727" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -19836,7 +19841,7 @@
       <c r="W727" s="1"/>
       <c r="X727" s="1"/>
     </row>
-    <row r="728" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -19862,7 +19867,7 @@
       <c r="W728" s="1"/>
       <c r="X728" s="1"/>
     </row>
-    <row r="729" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -19888,7 +19893,7 @@
       <c r="W729" s="1"/>
       <c r="X729" s="1"/>
     </row>
-    <row r="730" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -19914,7 +19919,7 @@
       <c r="W730" s="1"/>
       <c r="X730" s="1"/>
     </row>
-    <row r="731" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -19940,7 +19945,7 @@
       <c r="W731" s="1"/>
       <c r="X731" s="1"/>
     </row>
-    <row r="732" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -19966,7 +19971,7 @@
       <c r="W732" s="1"/>
       <c r="X732" s="1"/>
     </row>
-    <row r="733" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -19992,7 +19997,7 @@
       <c r="W733" s="1"/>
       <c r="X733" s="1"/>
     </row>
-    <row r="734" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -20018,7 +20023,7 @@
       <c r="W734" s="1"/>
       <c r="X734" s="1"/>
     </row>
-    <row r="735" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -20044,7 +20049,7 @@
       <c r="W735" s="1"/>
       <c r="X735" s="1"/>
     </row>
-    <row r="736" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -20070,7 +20075,7 @@
       <c r="W736" s="1"/>
       <c r="X736" s="1"/>
     </row>
-    <row r="737" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -20096,7 +20101,7 @@
       <c r="W737" s="1"/>
       <c r="X737" s="1"/>
     </row>
-    <row r="738" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -20122,7 +20127,7 @@
       <c r="W738" s="1"/>
       <c r="X738" s="1"/>
     </row>
-    <row r="739" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -20148,7 +20153,7 @@
       <c r="W739" s="1"/>
       <c r="X739" s="1"/>
     </row>
-    <row r="740" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -20174,7 +20179,7 @@
       <c r="W740" s="1"/>
       <c r="X740" s="1"/>
     </row>
-    <row r="741" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -20200,7 +20205,7 @@
       <c r="W741" s="1"/>
       <c r="X741" s="1"/>
     </row>
-    <row r="742" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -20226,7 +20231,7 @@
       <c r="W742" s="1"/>
       <c r="X742" s="1"/>
     </row>
-    <row r="743" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -20252,7 +20257,7 @@
       <c r="W743" s="1"/>
       <c r="X743" s="1"/>
     </row>
-    <row r="744" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -20278,7 +20283,7 @@
       <c r="W744" s="1"/>
       <c r="X744" s="1"/>
     </row>
-    <row r="745" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -20304,7 +20309,7 @@
       <c r="W745" s="1"/>
       <c r="X745" s="1"/>
     </row>
-    <row r="746" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -20330,7 +20335,7 @@
       <c r="W746" s="1"/>
       <c r="X746" s="1"/>
     </row>
-    <row r="747" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -20356,7 +20361,7 @@
       <c r="W747" s="1"/>
       <c r="X747" s="1"/>
     </row>
-    <row r="748" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -20382,7 +20387,7 @@
       <c r="W748" s="1"/>
       <c r="X748" s="1"/>
     </row>
-    <row r="749" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -20408,7 +20413,7 @@
       <c r="W749" s="1"/>
       <c r="X749" s="1"/>
     </row>
-    <row r="750" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -20434,7 +20439,7 @@
       <c r="W750" s="1"/>
       <c r="X750" s="1"/>
     </row>
-    <row r="751" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -20460,7 +20465,7 @@
       <c r="W751" s="1"/>
       <c r="X751" s="1"/>
     </row>
-    <row r="752" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -20486,7 +20491,7 @@
       <c r="W752" s="1"/>
       <c r="X752" s="1"/>
     </row>
-    <row r="753" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -20512,7 +20517,7 @@
       <c r="W753" s="1"/>
       <c r="X753" s="1"/>
     </row>
-    <row r="754" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -20538,7 +20543,7 @@
       <c r="W754" s="1"/>
       <c r="X754" s="1"/>
     </row>
-    <row r="755" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -20564,7 +20569,7 @@
       <c r="W755" s="1"/>
       <c r="X755" s="1"/>
     </row>
-    <row r="756" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -20590,7 +20595,7 @@
       <c r="W756" s="1"/>
       <c r="X756" s="1"/>
     </row>
-    <row r="757" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -20616,7 +20621,7 @@
       <c r="W757" s="1"/>
       <c r="X757" s="1"/>
     </row>
-    <row r="758" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -20642,7 +20647,7 @@
       <c r="W758" s="1"/>
       <c r="X758" s="1"/>
     </row>
-    <row r="759" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -20668,7 +20673,7 @@
       <c r="W759" s="1"/>
       <c r="X759" s="1"/>
     </row>
-    <row r="760" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -20694,7 +20699,7 @@
       <c r="W760" s="1"/>
       <c r="X760" s="1"/>
     </row>
-    <row r="761" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -20720,7 +20725,7 @@
       <c r="W761" s="1"/>
       <c r="X761" s="1"/>
     </row>
-    <row r="762" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -20746,7 +20751,7 @@
       <c r="W762" s="1"/>
       <c r="X762" s="1"/>
     </row>
-    <row r="763" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -20772,7 +20777,7 @@
       <c r="W763" s="1"/>
       <c r="X763" s="1"/>
     </row>
-    <row r="764" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -20798,7 +20803,7 @@
       <c r="W764" s="1"/>
       <c r="X764" s="1"/>
     </row>
-    <row r="765" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -20824,7 +20829,7 @@
       <c r="W765" s="1"/>
       <c r="X765" s="1"/>
     </row>
-    <row r="766" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -20850,7 +20855,7 @@
       <c r="W766" s="1"/>
       <c r="X766" s="1"/>
     </row>
-    <row r="767" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -20876,7 +20881,7 @@
       <c r="W767" s="1"/>
       <c r="X767" s="1"/>
     </row>
-    <row r="768" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -20902,7 +20907,7 @@
       <c r="W768" s="1"/>
       <c r="X768" s="1"/>
     </row>
-    <row r="769" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -20928,7 +20933,7 @@
       <c r="W769" s="1"/>
       <c r="X769" s="1"/>
     </row>
-    <row r="770" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -20954,7 +20959,7 @@
       <c r="W770" s="1"/>
       <c r="X770" s="1"/>
     </row>
-    <row r="771" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -20980,7 +20985,7 @@
       <c r="W771" s="1"/>
       <c r="X771" s="1"/>
     </row>
-    <row r="772" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -21006,7 +21011,7 @@
       <c r="W772" s="1"/>
       <c r="X772" s="1"/>
     </row>
-    <row r="773" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -21032,7 +21037,7 @@
       <c r="W773" s="1"/>
       <c r="X773" s="1"/>
     </row>
-    <row r="774" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -21058,7 +21063,7 @@
       <c r="W774" s="1"/>
       <c r="X774" s="1"/>
     </row>
-    <row r="775" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -21084,7 +21089,7 @@
       <c r="W775" s="1"/>
       <c r="X775" s="1"/>
     </row>
-    <row r="776" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -21110,7 +21115,7 @@
       <c r="W776" s="1"/>
       <c r="X776" s="1"/>
     </row>
-    <row r="777" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -21136,7 +21141,7 @@
       <c r="W777" s="1"/>
       <c r="X777" s="1"/>
     </row>
-    <row r="778" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -21162,7 +21167,7 @@
       <c r="W778" s="1"/>
       <c r="X778" s="1"/>
     </row>
-    <row r="779" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -21188,7 +21193,7 @@
       <c r="W779" s="1"/>
       <c r="X779" s="1"/>
     </row>
-    <row r="780" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -21214,7 +21219,7 @@
       <c r="W780" s="1"/>
       <c r="X780" s="1"/>
     </row>
-    <row r="781" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -21240,7 +21245,7 @@
       <c r="W781" s="1"/>
       <c r="X781" s="1"/>
     </row>
-    <row r="782" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -21266,7 +21271,7 @@
       <c r="W782" s="1"/>
       <c r="X782" s="1"/>
     </row>
-    <row r="783" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -21292,7 +21297,7 @@
       <c r="W783" s="1"/>
       <c r="X783" s="1"/>
     </row>
-    <row r="784" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -21318,7 +21323,7 @@
       <c r="W784" s="1"/>
       <c r="X784" s="1"/>
     </row>
-    <row r="785" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -21344,7 +21349,7 @@
       <c r="W785" s="1"/>
       <c r="X785" s="1"/>
     </row>
-    <row r="786" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -21370,7 +21375,7 @@
       <c r="W786" s="1"/>
       <c r="X786" s="1"/>
     </row>
-    <row r="787" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -21396,7 +21401,7 @@
       <c r="W787" s="1"/>
       <c r="X787" s="1"/>
     </row>
-    <row r="788" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -21422,7 +21427,7 @@
       <c r="W788" s="1"/>
       <c r="X788" s="1"/>
     </row>
-    <row r="789" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -21448,7 +21453,7 @@
       <c r="W789" s="1"/>
       <c r="X789" s="1"/>
     </row>
-    <row r="790" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -21474,7 +21479,7 @@
       <c r="W790" s="1"/>
       <c r="X790" s="1"/>
     </row>
-    <row r="791" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -21500,7 +21505,7 @@
       <c r="W791" s="1"/>
       <c r="X791" s="1"/>
     </row>
-    <row r="792" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -21526,7 +21531,7 @@
       <c r="W792" s="1"/>
       <c r="X792" s="1"/>
     </row>
-    <row r="793" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -21552,7 +21557,7 @@
       <c r="W793" s="1"/>
       <c r="X793" s="1"/>
     </row>
-    <row r="794" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -21578,7 +21583,7 @@
       <c r="W794" s="1"/>
       <c r="X794" s="1"/>
     </row>
-    <row r="795" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -21604,7 +21609,7 @@
       <c r="W795" s="1"/>
       <c r="X795" s="1"/>
     </row>
-    <row r="796" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -21630,7 +21635,7 @@
       <c r="W796" s="1"/>
       <c r="X796" s="1"/>
     </row>
-    <row r="797" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -21656,7 +21661,7 @@
       <c r="W797" s="1"/>
       <c r="X797" s="1"/>
     </row>
-    <row r="798" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -21682,7 +21687,7 @@
       <c r="W798" s="1"/>
       <c r="X798" s="1"/>
     </row>
-    <row r="799" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -21708,7 +21713,7 @@
       <c r="W799" s="1"/>
       <c r="X799" s="1"/>
     </row>
-    <row r="800" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -21734,7 +21739,7 @@
       <c r="W800" s="1"/>
       <c r="X800" s="1"/>
     </row>
-    <row r="801" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -21760,7 +21765,7 @@
       <c r="W801" s="1"/>
       <c r="X801" s="1"/>
     </row>
-    <row r="802" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -21786,7 +21791,7 @@
       <c r="W802" s="1"/>
       <c r="X802" s="1"/>
     </row>
-    <row r="803" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -21812,7 +21817,7 @@
       <c r="W803" s="1"/>
       <c r="X803" s="1"/>
     </row>
-    <row r="804" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -21838,7 +21843,7 @@
       <c r="W804" s="1"/>
       <c r="X804" s="1"/>
     </row>
-    <row r="805" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -21864,7 +21869,7 @@
       <c r="W805" s="1"/>
       <c r="X805" s="1"/>
     </row>
-    <row r="806" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -21890,7 +21895,7 @@
       <c r="W806" s="1"/>
       <c r="X806" s="1"/>
     </row>
-    <row r="807" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -21916,7 +21921,7 @@
       <c r="W807" s="1"/>
       <c r="X807" s="1"/>
     </row>
-    <row r="808" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -21942,7 +21947,7 @@
       <c r="W808" s="1"/>
       <c r="X808" s="1"/>
     </row>
-    <row r="809" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -21968,7 +21973,7 @@
       <c r="W809" s="1"/>
       <c r="X809" s="1"/>
     </row>
-    <row r="810" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -21994,7 +21999,7 @@
       <c r="W810" s="1"/>
       <c r="X810" s="1"/>
     </row>
-    <row r="811" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -22020,7 +22025,7 @@
       <c r="W811" s="1"/>
       <c r="X811" s="1"/>
     </row>
-    <row r="812" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -22046,7 +22051,7 @@
       <c r="W812" s="1"/>
       <c r="X812" s="1"/>
     </row>
-    <row r="813" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -22072,7 +22077,7 @@
       <c r="W813" s="1"/>
       <c r="X813" s="1"/>
     </row>
-    <row r="814" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -22098,7 +22103,7 @@
       <c r="W814" s="1"/>
       <c r="X814" s="1"/>
     </row>
-    <row r="815" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -22124,7 +22129,7 @@
       <c r="W815" s="1"/>
       <c r="X815" s="1"/>
     </row>
-    <row r="816" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -22150,7 +22155,7 @@
       <c r="W816" s="1"/>
       <c r="X816" s="1"/>
     </row>
-    <row r="817" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -22176,7 +22181,7 @@
       <c r="W817" s="1"/>
       <c r="X817" s="1"/>
     </row>
-    <row r="818" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -22202,7 +22207,7 @@
       <c r="W818" s="1"/>
       <c r="X818" s="1"/>
     </row>
-    <row r="819" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -22228,7 +22233,7 @@
       <c r="W819" s="1"/>
       <c r="X819" s="1"/>
     </row>
-    <row r="820" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -22254,7 +22259,7 @@
       <c r="W820" s="1"/>
       <c r="X820" s="1"/>
     </row>
-    <row r="821" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -22280,7 +22285,7 @@
       <c r="W821" s="1"/>
       <c r="X821" s="1"/>
     </row>
-    <row r="822" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -22306,7 +22311,7 @@
       <c r="W822" s="1"/>
       <c r="X822" s="1"/>
     </row>
-    <row r="823" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -22332,7 +22337,7 @@
       <c r="W823" s="1"/>
       <c r="X823" s="1"/>
     </row>
-    <row r="824" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -22358,7 +22363,7 @@
       <c r="W824" s="1"/>
       <c r="X824" s="1"/>
     </row>
-    <row r="825" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -22384,7 +22389,7 @@
       <c r="W825" s="1"/>
       <c r="X825" s="1"/>
     </row>
-    <row r="826" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -22410,7 +22415,7 @@
       <c r="W826" s="1"/>
       <c r="X826" s="1"/>
     </row>
-    <row r="827" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -22436,7 +22441,7 @@
       <c r="W827" s="1"/>
       <c r="X827" s="1"/>
     </row>
-    <row r="828" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -22462,7 +22467,7 @@
       <c r="W828" s="1"/>
       <c r="X828" s="1"/>
     </row>
-    <row r="829" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -22488,7 +22493,7 @@
       <c r="W829" s="1"/>
       <c r="X829" s="1"/>
     </row>
-    <row r="830" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -22514,7 +22519,7 @@
       <c r="W830" s="1"/>
       <c r="X830" s="1"/>
     </row>
-    <row r="831" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -22540,7 +22545,7 @@
       <c r="W831" s="1"/>
       <c r="X831" s="1"/>
     </row>
-    <row r="832" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -22566,7 +22571,7 @@
       <c r="W832" s="1"/>
       <c r="X832" s="1"/>
     </row>
-    <row r="833" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -22592,7 +22597,7 @@
       <c r="W833" s="1"/>
       <c r="X833" s="1"/>
     </row>
-    <row r="834" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -22618,7 +22623,7 @@
       <c r="W834" s="1"/>
       <c r="X834" s="1"/>
     </row>
-    <row r="835" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -22644,7 +22649,7 @@
       <c r="W835" s="1"/>
       <c r="X835" s="1"/>
     </row>
-    <row r="836" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -22670,7 +22675,7 @@
       <c r="W836" s="1"/>
       <c r="X836" s="1"/>
     </row>
-    <row r="837" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -22696,7 +22701,7 @@
       <c r="W837" s="1"/>
       <c r="X837" s="1"/>
     </row>
-    <row r="838" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -22722,7 +22727,7 @@
       <c r="W838" s="1"/>
       <c r="X838" s="1"/>
     </row>
-    <row r="839" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -22748,7 +22753,7 @@
       <c r="W839" s="1"/>
       <c r="X839" s="1"/>
     </row>
-    <row r="840" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -22774,7 +22779,7 @@
       <c r="W840" s="1"/>
       <c r="X840" s="1"/>
     </row>
-    <row r="841" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -22800,7 +22805,7 @@
       <c r="W841" s="1"/>
       <c r="X841" s="1"/>
     </row>
-    <row r="842" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -22826,7 +22831,7 @@
       <c r="W842" s="1"/>
       <c r="X842" s="1"/>
     </row>
-    <row r="843" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -22852,7 +22857,7 @@
       <c r="W843" s="1"/>
       <c r="X843" s="1"/>
     </row>
-    <row r="844" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -22878,7 +22883,7 @@
       <c r="W844" s="1"/>
       <c r="X844" s="1"/>
     </row>
-    <row r="845" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -22904,7 +22909,7 @@
       <c r="W845" s="1"/>
       <c r="X845" s="1"/>
     </row>
-    <row r="846" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -22930,7 +22935,7 @@
       <c r="W846" s="1"/>
       <c r="X846" s="1"/>
     </row>
-    <row r="847" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -22956,7 +22961,7 @@
       <c r="W847" s="1"/>
       <c r="X847" s="1"/>
     </row>
-    <row r="848" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -22982,7 +22987,7 @@
       <c r="W848" s="1"/>
       <c r="X848" s="1"/>
     </row>
-    <row r="849" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -23008,7 +23013,7 @@
       <c r="W849" s="1"/>
       <c r="X849" s="1"/>
     </row>
-    <row r="850" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -23034,7 +23039,7 @@
       <c r="W850" s="1"/>
       <c r="X850" s="1"/>
     </row>
-    <row r="851" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -23060,7 +23065,7 @@
       <c r="W851" s="1"/>
       <c r="X851" s="1"/>
     </row>
-    <row r="852" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -23086,7 +23091,7 @@
       <c r="W852" s="1"/>
       <c r="X852" s="1"/>
     </row>
-    <row r="853" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -23112,7 +23117,7 @@
       <c r="W853" s="1"/>
       <c r="X853" s="1"/>
     </row>
-    <row r="854" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -23138,7 +23143,7 @@
       <c r="W854" s="1"/>
       <c r="X854" s="1"/>
     </row>
-    <row r="855" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -23164,7 +23169,7 @@
       <c r="W855" s="1"/>
       <c r="X855" s="1"/>
     </row>
-    <row r="856" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -23190,7 +23195,7 @@
       <c r="W856" s="1"/>
       <c r="X856" s="1"/>
     </row>
-    <row r="857" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -23216,7 +23221,7 @@
       <c r="W857" s="1"/>
       <c r="X857" s="1"/>
     </row>
-    <row r="858" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -23242,7 +23247,7 @@
       <c r="W858" s="1"/>
       <c r="X858" s="1"/>
     </row>
-    <row r="859" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -23268,7 +23273,7 @@
       <c r="W859" s="1"/>
       <c r="X859" s="1"/>
     </row>
-    <row r="860" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -23294,7 +23299,7 @@
       <c r="W860" s="1"/>
       <c r="X860" s="1"/>
     </row>
-    <row r="861" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -23320,7 +23325,7 @@
       <c r="W861" s="1"/>
       <c r="X861" s="1"/>
     </row>
-    <row r="862" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -23346,7 +23351,7 @@
       <c r="W862" s="1"/>
       <c r="X862" s="1"/>
     </row>
-    <row r="863" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -23372,7 +23377,7 @@
       <c r="W863" s="1"/>
       <c r="X863" s="1"/>
     </row>
-    <row r="864" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -23398,7 +23403,7 @@
       <c r="W864" s="1"/>
       <c r="X864" s="1"/>
     </row>
-    <row r="865" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -23424,7 +23429,7 @@
       <c r="W865" s="1"/>
       <c r="X865" s="1"/>
     </row>
-    <row r="866" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -23450,7 +23455,7 @@
       <c r="W866" s="1"/>
       <c r="X866" s="1"/>
     </row>
-    <row r="867" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -23476,7 +23481,7 @@
       <c r="W867" s="1"/>
       <c r="X867" s="1"/>
     </row>
-    <row r="868" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -23502,7 +23507,7 @@
       <c r="W868" s="1"/>
       <c r="X868" s="1"/>
     </row>
-    <row r="869" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -23528,7 +23533,7 @@
       <c r="W869" s="1"/>
       <c r="X869" s="1"/>
     </row>
-    <row r="870" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -23554,7 +23559,7 @@
       <c r="W870" s="1"/>
       <c r="X870" s="1"/>
     </row>
-    <row r="871" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -23580,7 +23585,7 @@
       <c r="W871" s="1"/>
       <c r="X871" s="1"/>
     </row>
-    <row r="872" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -23606,7 +23611,7 @@
       <c r="W872" s="1"/>
       <c r="X872" s="1"/>
     </row>
-    <row r="873" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -23632,7 +23637,7 @@
       <c r="W873" s="1"/>
       <c r="X873" s="1"/>
     </row>
-    <row r="874" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -23658,7 +23663,7 @@
       <c r="W874" s="1"/>
       <c r="X874" s="1"/>
     </row>
-    <row r="875" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -23684,7 +23689,7 @@
       <c r="W875" s="1"/>
       <c r="X875" s="1"/>
     </row>
-    <row r="876" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -23710,7 +23715,7 @@
       <c r="W876" s="1"/>
       <c r="X876" s="1"/>
     </row>
-    <row r="877" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -23736,7 +23741,7 @@
       <c r="W877" s="1"/>
       <c r="X877" s="1"/>
     </row>
-    <row r="878" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -23762,7 +23767,7 @@
       <c r="W878" s="1"/>
       <c r="X878" s="1"/>
     </row>
-    <row r="879" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -23788,7 +23793,7 @@
       <c r="W879" s="1"/>
       <c r="X879" s="1"/>
     </row>
-    <row r="880" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -23814,7 +23819,7 @@
       <c r="W880" s="1"/>
       <c r="X880" s="1"/>
     </row>
-    <row r="881" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -23840,7 +23845,7 @@
       <c r="W881" s="1"/>
       <c r="X881" s="1"/>
     </row>
-    <row r="882" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -23866,7 +23871,7 @@
       <c r="W882" s="1"/>
       <c r="X882" s="1"/>
     </row>
-    <row r="883" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -23892,7 +23897,7 @@
       <c r="W883" s="1"/>
       <c r="X883" s="1"/>
     </row>
-    <row r="884" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -23918,7 +23923,7 @@
       <c r="W884" s="1"/>
       <c r="X884" s="1"/>
     </row>
-    <row r="885" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -23944,7 +23949,7 @@
       <c r="W885" s="1"/>
       <c r="X885" s="1"/>
     </row>
-    <row r="886" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -23970,7 +23975,7 @@
       <c r="W886" s="1"/>
       <c r="X886" s="1"/>
     </row>
-    <row r="887" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -23996,7 +24001,7 @@
       <c r="W887" s="1"/>
       <c r="X887" s="1"/>
     </row>
-    <row r="888" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -24022,7 +24027,7 @@
       <c r="W888" s="1"/>
       <c r="X888" s="1"/>
     </row>
-    <row r="889" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -24048,7 +24053,7 @@
       <c r="W889" s="1"/>
       <c r="X889" s="1"/>
     </row>
-    <row r="890" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -24074,7 +24079,7 @@
       <c r="W890" s="1"/>
       <c r="X890" s="1"/>
     </row>
-    <row r="891" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -24100,7 +24105,7 @@
       <c r="W891" s="1"/>
       <c r="X891" s="1"/>
     </row>
-    <row r="892" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -24126,7 +24131,7 @@
       <c r="W892" s="1"/>
       <c r="X892" s="1"/>
     </row>
-    <row r="893" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -24152,7 +24157,7 @@
       <c r="W893" s="1"/>
       <c r="X893" s="1"/>
     </row>
-    <row r="894" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -24178,7 +24183,7 @@
       <c r="W894" s="1"/>
       <c r="X894" s="1"/>
     </row>
-    <row r="895" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -24204,7 +24209,7 @@
       <c r="W895" s="1"/>
       <c r="X895" s="1"/>
     </row>
-    <row r="896" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -24230,7 +24235,7 @@
       <c r="W896" s="1"/>
       <c r="X896" s="1"/>
     </row>
-    <row r="897" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -24256,7 +24261,7 @@
       <c r="W897" s="1"/>
       <c r="X897" s="1"/>
     </row>
-    <row r="898" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -24282,7 +24287,7 @@
       <c r="W898" s="1"/>
       <c r="X898" s="1"/>
     </row>
-    <row r="899" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -24308,7 +24313,7 @@
       <c r="W899" s="1"/>
       <c r="X899" s="1"/>
     </row>
-    <row r="900" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -24334,7 +24339,7 @@
       <c r="W900" s="1"/>
       <c r="X900" s="1"/>
     </row>
-    <row r="901" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -24360,7 +24365,7 @@
       <c r="W901" s="1"/>
       <c r="X901" s="1"/>
     </row>
-    <row r="902" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -24386,7 +24391,7 @@
       <c r="W902" s="1"/>
       <c r="X902" s="1"/>
     </row>
-    <row r="903" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -24412,7 +24417,7 @@
       <c r="W903" s="1"/>
       <c r="X903" s="1"/>
     </row>
-    <row r="904" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -24438,7 +24443,7 @@
       <c r="W904" s="1"/>
       <c r="X904" s="1"/>
     </row>
-    <row r="905" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -24464,7 +24469,7 @@
       <c r="W905" s="1"/>
       <c r="X905" s="1"/>
     </row>
-    <row r="906" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -24490,7 +24495,7 @@
       <c r="W906" s="1"/>
       <c r="X906" s="1"/>
     </row>
-    <row r="907" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -24516,7 +24521,7 @@
       <c r="W907" s="1"/>
       <c r="X907" s="1"/>
     </row>
-    <row r="908" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -24542,7 +24547,7 @@
       <c r="W908" s="1"/>
       <c r="X908" s="1"/>
     </row>
-    <row r="909" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -24568,7 +24573,7 @@
       <c r="W909" s="1"/>
       <c r="X909" s="1"/>
     </row>
-    <row r="910" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -24594,7 +24599,7 @@
       <c r="W910" s="1"/>
       <c r="X910" s="1"/>
     </row>
-    <row r="911" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -24620,7 +24625,7 @@
       <c r="W911" s="1"/>
       <c r="X911" s="1"/>
     </row>
-    <row r="912" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -24646,7 +24651,7 @@
       <c r="W912" s="1"/>
       <c r="X912" s="1"/>
     </row>
-    <row r="913" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -24672,7 +24677,7 @@
       <c r="W913" s="1"/>
       <c r="X913" s="1"/>
     </row>
-    <row r="914" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -24698,7 +24703,7 @@
       <c r="W914" s="1"/>
       <c r="X914" s="1"/>
     </row>
-    <row r="915" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -24724,7 +24729,7 @@
       <c r="W915" s="1"/>
       <c r="X915" s="1"/>
     </row>
-    <row r="916" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -24750,7 +24755,7 @@
       <c r="W916" s="1"/>
       <c r="X916" s="1"/>
     </row>
-    <row r="917" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -24776,7 +24781,7 @@
       <c r="W917" s="1"/>
       <c r="X917" s="1"/>
     </row>
-    <row r="918" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -24802,7 +24807,7 @@
       <c r="W918" s="1"/>
       <c r="X918" s="1"/>
     </row>
-    <row r="919" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -24828,7 +24833,7 @@
       <c r="W919" s="1"/>
       <c r="X919" s="1"/>
     </row>
-    <row r="920" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -24854,7 +24859,7 @@
       <c r="W920" s="1"/>
       <c r="X920" s="1"/>
     </row>
-    <row r="921" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -24880,7 +24885,7 @@
       <c r="W921" s="1"/>
       <c r="X921" s="1"/>
     </row>
-    <row r="922" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -24906,7 +24911,7 @@
       <c r="W922" s="1"/>
       <c r="X922" s="1"/>
     </row>
-    <row r="923" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -24932,7 +24937,7 @@
       <c r="W923" s="1"/>
       <c r="X923" s="1"/>
     </row>
-    <row r="924" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -24958,7 +24963,7 @@
       <c r="W924" s="1"/>
       <c r="X924" s="1"/>
     </row>
-    <row r="925" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -24984,7 +24989,7 @@
       <c r="W925" s="1"/>
       <c r="X925" s="1"/>
     </row>
-    <row r="926" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -25010,7 +25015,7 @@
       <c r="W926" s="1"/>
       <c r="X926" s="1"/>
     </row>
-    <row r="927" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -25036,7 +25041,7 @@
       <c r="W927" s="1"/>
       <c r="X927" s="1"/>
     </row>
-    <row r="928" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -25062,7 +25067,7 @@
       <c r="W928" s="1"/>
       <c r="X928" s="1"/>
     </row>
-    <row r="929" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -25088,7 +25093,7 @@
       <c r="W929" s="1"/>
       <c r="X929" s="1"/>
     </row>
-    <row r="930" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -25114,7 +25119,7 @@
       <c r="W930" s="1"/>
       <c r="X930" s="1"/>
     </row>
-    <row r="931" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -25140,7 +25145,7 @@
       <c r="W931" s="1"/>
       <c r="X931" s="1"/>
     </row>
-    <row r="932" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -25166,7 +25171,7 @@
       <c r="W932" s="1"/>
       <c r="X932" s="1"/>
     </row>
-    <row r="933" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -25192,7 +25197,7 @@
       <c r="W933" s="1"/>
       <c r="X933" s="1"/>
     </row>
-    <row r="934" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -25218,7 +25223,7 @@
       <c r="W934" s="1"/>
       <c r="X934" s="1"/>
     </row>
-    <row r="935" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -25244,7 +25249,7 @@
       <c r="W935" s="1"/>
       <c r="X935" s="1"/>
     </row>
-    <row r="936" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -25270,7 +25275,7 @@
       <c r="W936" s="1"/>
       <c r="X936" s="1"/>
     </row>
-    <row r="937" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -25296,7 +25301,7 @@
       <c r="W937" s="1"/>
       <c r="X937" s="1"/>
     </row>
-    <row r="938" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -25322,7 +25327,7 @@
       <c r="W938" s="1"/>
       <c r="X938" s="1"/>
     </row>
-    <row r="939" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -25348,7 +25353,7 @@
       <c r="W939" s="1"/>
       <c r="X939" s="1"/>
     </row>
-    <row r="940" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -25374,7 +25379,7 @@
       <c r="W940" s="1"/>
       <c r="X940" s="1"/>
     </row>
-    <row r="941" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -25400,7 +25405,7 @@
       <c r="W941" s="1"/>
       <c r="X941" s="1"/>
     </row>
-    <row r="942" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -25426,7 +25431,7 @@
       <c r="W942" s="1"/>
       <c r="X942" s="1"/>
     </row>
-    <row r="943" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -25452,7 +25457,7 @@
       <c r="W943" s="1"/>
       <c r="X943" s="1"/>
     </row>
-    <row r="944" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -25478,7 +25483,7 @@
       <c r="W944" s="1"/>
       <c r="X944" s="1"/>
     </row>
-    <row r="945" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -25504,7 +25509,7 @@
       <c r="W945" s="1"/>
       <c r="X945" s="1"/>
     </row>
-    <row r="946" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -25530,7 +25535,7 @@
       <c r="W946" s="1"/>
       <c r="X946" s="1"/>
     </row>
-    <row r="947" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -25556,7 +25561,7 @@
       <c r="W947" s="1"/>
       <c r="X947" s="1"/>
     </row>
-    <row r="948" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -25582,7 +25587,7 @@
       <c r="W948" s="1"/>
       <c r="X948" s="1"/>
     </row>
-    <row r="949" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -25608,7 +25613,7 @@
       <c r="W949" s="1"/>
       <c r="X949" s="1"/>
     </row>
-    <row r="950" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -25634,7 +25639,7 @@
       <c r="W950" s="1"/>
       <c r="X950" s="1"/>
     </row>
-    <row r="951" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -25660,7 +25665,7 @@
       <c r="W951" s="1"/>
       <c r="X951" s="1"/>
     </row>
-    <row r="952" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -25686,7 +25691,7 @@
       <c r="W952" s="1"/>
       <c r="X952" s="1"/>
     </row>
-    <row r="953" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -25712,7 +25717,7 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -25738,7 +25743,7 @@
       <c r="W954" s="1"/>
       <c r="X954" s="1"/>
     </row>
-    <row r="955" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -25764,7 +25769,7 @@
       <c r="W955" s="1"/>
       <c r="X955" s="1"/>
     </row>
-    <row r="956" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -25790,7 +25795,7 @@
       <c r="W956" s="1"/>
       <c r="X956" s="1"/>
     </row>
-    <row r="957" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -25816,7 +25821,7 @@
       <c r="W957" s="1"/>
       <c r="X957" s="1"/>
     </row>
-    <row r="958" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -25842,7 +25847,7 @@
       <c r="W958" s="1"/>
       <c r="X958" s="1"/>
     </row>
-    <row r="959" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -25868,7 +25873,7 @@
       <c r="W959" s="1"/>
       <c r="X959" s="1"/>
     </row>
-    <row r="960" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -25894,7 +25899,7 @@
       <c r="W960" s="1"/>
       <c r="X960" s="1"/>
     </row>
-    <row r="961" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -25920,7 +25925,7 @@
       <c r="W961" s="1"/>
       <c r="X961" s="1"/>
     </row>
-    <row r="962" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -25946,7 +25951,7 @@
       <c r="W962" s="1"/>
       <c r="X962" s="1"/>
     </row>
-    <row r="963" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -25972,7 +25977,7 @@
       <c r="W963" s="1"/>
       <c r="X963" s="1"/>
     </row>
-    <row r="964" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -25998,7 +26003,7 @@
       <c r="W964" s="1"/>
       <c r="X964" s="1"/>
     </row>
-    <row r="965" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -26024,7 +26029,7 @@
       <c r="W965" s="1"/>
       <c r="X965" s="1"/>
     </row>
-    <row r="966" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -26050,7 +26055,7 @@
       <c r="W966" s="1"/>
       <c r="X966" s="1"/>
     </row>
-    <row r="967" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -26076,7 +26081,7 @@
       <c r="W967" s="1"/>
       <c r="X967" s="1"/>
     </row>
-    <row r="968" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -26102,7 +26107,7 @@
       <c r="W968" s="1"/>
       <c r="X968" s="1"/>
     </row>
-    <row r="969" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -26128,7 +26133,7 @@
       <c r="W969" s="1"/>
       <c r="X969" s="1"/>
     </row>
-    <row r="970" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -26154,7 +26159,7 @@
       <c r="W970" s="1"/>
       <c r="X970" s="1"/>
     </row>
-    <row r="971" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -26180,7 +26185,7 @@
       <c r="W971" s="1"/>
       <c r="X971" s="1"/>
     </row>
-    <row r="972" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -26206,7 +26211,7 @@
       <c r="W972" s="1"/>
       <c r="X972" s="1"/>
     </row>
-    <row r="973" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -26232,7 +26237,7 @@
       <c r="W973" s="1"/>
       <c r="X973" s="1"/>
     </row>
-    <row r="974" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -26258,7 +26263,7 @@
       <c r="W974" s="1"/>
       <c r="X974" s="1"/>
     </row>
-    <row r="975" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -26284,7 +26289,7 @@
       <c r="W975" s="1"/>
       <c r="X975" s="1"/>
     </row>
-    <row r="976" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -26310,7 +26315,7 @@
       <c r="W976" s="1"/>
       <c r="X976" s="1"/>
     </row>
-    <row r="977" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -26336,7 +26341,7 @@
       <c r="W977" s="1"/>
       <c r="X977" s="1"/>
     </row>
-    <row r="978" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -26362,7 +26367,7 @@
       <c r="W978" s="1"/>
       <c r="X978" s="1"/>
     </row>
-    <row r="979" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -26388,7 +26393,7 @@
       <c r="W979" s="1"/>
       <c r="X979" s="1"/>
     </row>
-    <row r="980" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -26414,7 +26419,7 @@
       <c r="W980" s="1"/>
       <c r="X980" s="1"/>
     </row>
-    <row r="981" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -26440,7 +26445,7 @@
       <c r="W981" s="1"/>
       <c r="X981" s="1"/>
     </row>
-    <row r="982" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -26466,7 +26471,7 @@
       <c r="W982" s="1"/>
       <c r="X982" s="1"/>
     </row>
-    <row r="983" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -26492,7 +26497,7 @@
       <c r="W983" s="1"/>
       <c r="X983" s="1"/>
     </row>
-    <row r="984" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -26518,7 +26523,7 @@
       <c r="W984" s="1"/>
       <c r="X984" s="1"/>
     </row>
-    <row r="985" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -26544,7 +26549,7 @@
       <c r="W985" s="1"/>
       <c r="X985" s="1"/>
     </row>
-    <row r="986" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -26570,7 +26575,7 @@
       <c r="W986" s="1"/>
       <c r="X986" s="1"/>
     </row>
-    <row r="987" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -26596,7 +26601,7 @@
       <c r="W987" s="1"/>
       <c r="X987" s="1"/>
     </row>
-    <row r="988" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -26622,7 +26627,7 @@
       <c r="W988" s="1"/>
       <c r="X988" s="1"/>
     </row>
-    <row r="989" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -26648,7 +26653,7 @@
       <c r="W989" s="1"/>
       <c r="X989" s="1"/>
     </row>
-    <row r="990" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -26674,7 +26679,7 @@
       <c r="W990" s="1"/>
       <c r="X990" s="1"/>
     </row>
-    <row r="991" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -26700,7 +26705,7 @@
       <c r="W991" s="1"/>
       <c r="X991" s="1"/>
     </row>
-    <row r="992" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -26726,7 +26731,7 @@
       <c r="W992" s="1"/>
       <c r="X992" s="1"/>
     </row>
-    <row r="993" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -26752,7 +26757,7 @@
       <c r="W993" s="1"/>
       <c r="X993" s="1"/>
     </row>
-    <row r="994" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -26778,7 +26783,7 @@
       <c r="W994" s="1"/>
       <c r="X994" s="1"/>
     </row>
-    <row r="995" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -26804,7 +26809,7 @@
       <c r="W995" s="1"/>
       <c r="X995" s="1"/>
     </row>
-    <row r="996" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -26830,7 +26835,7 @@
       <c r="W996" s="1"/>
       <c r="X996" s="1"/>
     </row>
-    <row r="997" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>

--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\45K211_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2F3C8B-4EC7-405A-A57A-AA26BDB86DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE5EA2-AAA2-48D1-9391-3A2C6A5FDD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>Đạt</t>
-  </si>
-  <si>
-    <t>max, min bao nhiêu kí tự</t>
   </si>
 </sst>
 </file>
@@ -696,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:X997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1980,9 +1977,7 @@
     <row r="41" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
